--- a/doc/examples.xlsx
+++ b/doc/examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ralfw/Projects/06 entwicklungen/NMCForecasting.github/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98950F3C-CB39-6E4A-8C7C-1572CDCA5AA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D53C8B-897D-B543-BE24-1778668BB963}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17040" activeTab="2" xr2:uid="{E6411D16-3D34-DF47-BAC5-62BB5C1AB095}"/>
   </bookViews>
@@ -19,12 +19,15 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Tabelle1!$A$1:$E$36</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Tabelle1!$A$39:$A$73</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Tabelle1!$E$2:$E$36</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Tabelle1!$A$39:$A$73</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Tabelle1!$A$94:$A$111</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Tabelle1!$B$94:$B$111</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Tabelle1!$D$94:$D$111</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Tabelle1!$E$2:$E$36</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Tabelle1!$E$41:$E$75</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Tabelle1!$E$2:$E$36</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Tabelle1!$E$2:$E$36</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Tabelle1!$A$94:$A$111</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Tabelle1!$B$94:$B$111</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Tabelle1!$D$94:$D$111</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="30">
   <si>
     <t>Frequency</t>
   </si>
@@ -127,6 +130,12 @@
   <si>
     <t>bug,frontend</t>
   </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>Multiple features</t>
+  </si>
 </sst>
 </file>
 
@@ -135,7 +144,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -146,6 +155,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -171,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -181,6 +197,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1547,12 +1564,2122 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Single</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> Issues</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$39:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$39:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6FBD-0F4F-B23E-01771FEC2CBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1581385040"/>
+        <c:axId val="1533328272"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$D$39:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6FBD-0F4F-B23E-01771FEC2CBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1584700816"/>
+        <c:axId val="1464487392"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1581385040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1533328272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1533328272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1581385040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1464487392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1584700816"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1584700816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1464487392"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Single Features</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$59:$A$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$59:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CB5E-1D48-B2DB-4765C1460F96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1582227040"/>
+        <c:axId val="1582760496"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$D$59:$D$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CB5E-1D48-B2DB-4765C1460F96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1567295392"/>
+        <c:axId val="1567313104"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1582227040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1582760496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1582760496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1582227040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1567313104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1567295392"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1567295392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1567313104"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Single Bug Fix</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$76:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$76:$B$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3C5B-6C44-96F2-801065B7FBBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1581027472"/>
+        <c:axId val="1581204544"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$D$76:$D$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3C5B-6C44-96F2-801065B7FBBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1585118720"/>
+        <c:axId val="1585043536"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1581027472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1581204544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1581204544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1581027472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1585043536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1585118720"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1585118720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1585043536"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Forecasting delivery</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> of 8 issues (10.000 sim. runs)</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$94:$A$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$94:$B$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>569</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>678</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>688</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>659</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>569</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7BAF-7647-9610-FD60AAB5D86D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1533334240"/>
+        <c:axId val="1583100784"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$D$94:$D$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>66.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>72.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>81.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>85.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>89.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>92.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>94.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>97.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>98.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>99.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>99.3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>99.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>99.7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>99.9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>99.9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7BAF-7647-9610-FD60AAB5D86D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1578252288"/>
+        <c:axId val="1578625024"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1533334240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1583100784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1583100784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1533334240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1578625024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1578252288"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1578252288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1578625024"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1770,6 +3897,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3783,6 +6070,2018 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3985,6 +8284,150 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Diagramm 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEF604AD-6AD4-A949-B9C3-F4107052CF3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Diagramm 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD55E43C-1154-7E4F-A8EF-81E46C19CFAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Diagramm 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A68D14EE-1C83-F44C-ABE3-13D655900BDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>649111</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Diagramm 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A2A5BB0-B14C-F944-9799-9857DE32F1F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5671,10 +10114,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68998185-6223-B043-AFF2-49C8E87E0E3F}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L125" sqref="L125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6303,26 +10746,117 @@
         <v>5</v>
       </c>
     </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
+      <c r="A39" s="6">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D39">
+        <v>14.3</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="6"/>
+      <c r="A40" s="6">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="D40">
+        <v>42.9</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="6"/>
+      <c r="A41" s="6">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D41">
+        <v>60</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="6"/>
+      <c r="A42" s="6">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D42">
+        <v>74.3</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="6"/>
+      <c r="A43" s="6">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>0.114</v>
+      </c>
+      <c r="D43">
+        <v>85.7</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="6"/>
+      <c r="A44" s="6">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="D44">
+        <v>91.4</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="6"/>
+      <c r="A45" s="6">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="D45">
+        <v>100</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
@@ -6333,80 +10867,806 @@
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="6"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="6"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="6"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="6"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="6"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="6"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="6"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="6">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>0.12</v>
+      </c>
+      <c r="D59">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="6">
+        <v>2</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>0.24</v>
+      </c>
+      <c r="D60">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="6">
+        <v>3</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>0.16</v>
+      </c>
+      <c r="D61">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="6">
+        <v>4</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>0.16</v>
+      </c>
+      <c r="D62">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="6">
+        <v>5</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>0.12</v>
+      </c>
+      <c r="D63">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="6">
+        <v>6</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>0.08</v>
+      </c>
+      <c r="D64">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="6">
+        <v>8</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>0.12</v>
+      </c>
+      <c r="D65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>0.2</v>
+      </c>
+      <c r="D76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>2</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>0.4</v>
+      </c>
+      <c r="D77">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>3</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>0.2</v>
+      </c>
+      <c r="D78">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>4</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>0.1</v>
+      </c>
+      <c r="D79">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>5</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>0.1</v>
+      </c>
+      <c r="D80">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A92" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>12</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>13</v>
+      </c>
+      <c r="B95">
+        <v>6</v>
+      </c>
+      <c r="C95">
+        <v>1E-3</v>
+      </c>
+      <c r="D95">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>14</v>
+      </c>
+      <c r="B96">
+        <v>14</v>
+      </c>
+      <c r="C96">
+        <v>1E-3</v>
+      </c>
+      <c r="D96">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>15</v>
+      </c>
+      <c r="B97">
+        <v>12</v>
+      </c>
+      <c r="C97">
+        <v>1E-3</v>
+      </c>
+      <c r="D97">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>16</v>
+      </c>
+      <c r="B98">
+        <v>39</v>
+      </c>
+      <c r="C98">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D98">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>17</v>
+      </c>
+      <c r="B99">
+        <v>78</v>
+      </c>
+      <c r="C99">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D99">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>18</v>
+      </c>
+      <c r="B100">
+        <v>108</v>
+      </c>
+      <c r="C100">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D100">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>19</v>
+      </c>
+      <c r="B101">
+        <v>162</v>
+      </c>
+      <c r="C101">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D101">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>20</v>
+      </c>
+      <c r="B102">
+        <v>217</v>
+      </c>
+      <c r="C102">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D102">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>21</v>
+      </c>
+      <c r="B103">
+        <v>287</v>
+      </c>
+      <c r="C103">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D103">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>22</v>
+      </c>
+      <c r="B104">
+        <v>376</v>
+      </c>
+      <c r="C104">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D104">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>23</v>
+      </c>
+      <c r="B105">
+        <v>442</v>
+      </c>
+      <c r="C105">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D105">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>24</v>
+      </c>
+      <c r="B106">
+        <v>537</v>
+      </c>
+      <c r="C106">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D106">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>25</v>
+      </c>
+      <c r="B107">
+        <v>569</v>
+      </c>
+      <c r="C107">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="D107">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>26</v>
+      </c>
+      <c r="B108">
+        <v>601</v>
+      </c>
+      <c r="C108">
+        <v>0.06</v>
+      </c>
+      <c r="D108">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>27</v>
+      </c>
+      <c r="B109">
+        <v>678</v>
+      </c>
+      <c r="C109">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D109">
+        <v>41.3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>28</v>
+      </c>
+      <c r="B110">
+        <v>688</v>
+      </c>
+      <c r="C110">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D110">
+        <v>48.2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>29</v>
+      </c>
+      <c r="B111">
+        <v>659</v>
+      </c>
+      <c r="C111">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D111">
+        <v>54.8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>30</v>
+      </c>
+      <c r="B112">
+        <v>620</v>
+      </c>
+      <c r="C112">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D112">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>31</v>
+      </c>
+      <c r="B113">
+        <v>561</v>
+      </c>
+      <c r="C113">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="D113">
+        <v>66.599999999999994</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>32</v>
+      </c>
+      <c r="B114">
+        <v>569</v>
+      </c>
+      <c r="C114">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="D114">
+        <v>72.3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>33</v>
+      </c>
+      <c r="B115">
+        <v>528</v>
+      </c>
+      <c r="C115">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="D115">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>34</v>
+      </c>
+      <c r="B116">
+        <v>434</v>
+      </c>
+      <c r="C116">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D116">
+        <v>81.900000000000006</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>35</v>
+      </c>
+      <c r="B117">
+        <v>404</v>
+      </c>
+      <c r="C117">
+        <v>0.04</v>
+      </c>
+      <c r="D117">
+        <v>85.9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>36</v>
+      </c>
+      <c r="B118">
+        <v>348</v>
+      </c>
+      <c r="C118">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D118">
+        <v>89.4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>37</v>
+      </c>
+      <c r="B119">
+        <v>279</v>
+      </c>
+      <c r="C119">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D119">
+        <v>92.2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>38</v>
+      </c>
+      <c r="B120">
+        <v>217</v>
+      </c>
+      <c r="C120">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D120">
+        <v>94.4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>39</v>
+      </c>
+      <c r="B121">
+        <v>160</v>
+      </c>
+      <c r="C121">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D121">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>40</v>
+      </c>
+      <c r="B122">
+        <v>126</v>
+      </c>
+      <c r="C122">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D122">
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>41</v>
+      </c>
+      <c r="B123">
+        <v>79</v>
+      </c>
+      <c r="C123">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D123">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>42</v>
+      </c>
+      <c r="B124">
+        <v>53</v>
+      </c>
+      <c r="C124">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D124">
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>43</v>
+      </c>
+      <c r="B125">
+        <v>52</v>
+      </c>
+      <c r="C125">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D125">
+        <v>99.1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>44</v>
+      </c>
+      <c r="B126">
+        <v>25</v>
+      </c>
+      <c r="C126">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D126">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>45</v>
+      </c>
+      <c r="B127">
+        <v>25</v>
+      </c>
+      <c r="C127">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D127">
+        <v>99.6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>46</v>
+      </c>
+      <c r="B128">
+        <v>16</v>
+      </c>
+      <c r="C128">
+        <v>2E-3</v>
+      </c>
+      <c r="D128">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>47</v>
+      </c>
+      <c r="B129">
+        <v>6</v>
+      </c>
+      <c r="C129">
+        <v>1E-3</v>
+      </c>
+      <c r="D129">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>48</v>
+      </c>
+      <c r="B130">
+        <v>10</v>
+      </c>
+      <c r="C130">
+        <v>1E-3</v>
+      </c>
+      <c r="D130">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>49</v>
+      </c>
+      <c r="B131">
+        <v>5</v>
+      </c>
+      <c r="C131">
+        <v>1E-3</v>
+      </c>
+      <c r="D131">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>50</v>
+      </c>
+      <c r="B132">
+        <v>4</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>51</v>
+      </c>
+      <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>53</v>
+      </c>
+      <c r="B134">
+        <v>2</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E36" xr:uid="{92800A5C-A3C2-AE4F-A71C-AB85AD721EDA}"/>
@@ -6414,6 +11674,7 @@
     <sortCondition ref="E41:E75"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/examples.xlsx
+++ b/doc/examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ralfw/Projects/06 entwicklungen/NMCForecasting.github/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D53C8B-897D-B543-BE24-1778668BB963}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B032E4F7-F460-EB4C-9BF8-F5BF987EB825}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17040" activeTab="2" xr2:uid="{E6411D16-3D34-DF47-BAC5-62BB5C1AB095}"/>
   </bookViews>
@@ -19,15 +19,19 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Tabelle1!$A$1:$E$36</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Tabelle1!$A$94:$A$111</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Tabelle1!$B$94:$B$111</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Tabelle1!$D$94:$D$111</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Tabelle1!$E$2:$E$36</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Tabelle1!$E$2:$E$36</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Tabelle1!$E$2:$E$36</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Tabelle1!$A$94:$A$111</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Tabelle1!$B$94:$B$111</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Tabelle1!$D$94:$D$111</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Tabelle1!$A$139:$A$157</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Tabelle1!$B$139:$B$157</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Tabelle1!$D$208:$D$222</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Tabelle1!$I$168:$I$194</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Tabelle1!$I$168:$I$194</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Tabelle1!$D$139:$D$157</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Tabelle1!$A$139:$A$157</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Tabelle1!$B$139:$B$157</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Tabelle1!$D$139:$D$157</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Tabelle1!$E$2:$E$36</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Tabelle1!$I$168:$I$194</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Tabelle1!$A$208:$A$222</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Tabelle1!$B$208:$B$222</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="33">
   <si>
     <t>Frequency</t>
   </si>
@@ -136,6 +140,15 @@
   <si>
     <t>Multiple features</t>
   </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>including weekends</t>
+  </si>
+  <si>
+    <t>no weekends</t>
+  </si>
 </sst>
 </file>
 
@@ -167,12 +180,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -187,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -195,9 +214,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3674,12 +3699,1103 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Forecasting delivery of 8 issues worked on by 3 resources</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$139:$A$157</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$139:$B$157</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>617</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>966</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1239</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1370</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1814</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1305</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1044</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-88B3-5B45-B561-2D314820D16D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1531310912"/>
+        <c:axId val="1568486608"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$D$139:$D$157</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>97.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>99.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>99.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>99.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-88B3-5B45-B561-2D314820D16D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1568381904"/>
+        <c:axId val="1562689040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1531310912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1568486608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1568486608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1531310912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1562689040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1568381904"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1568381904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1562689040"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Forecasting delivery of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> 8 issues based on TP</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$208:$A$222</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$208:$B$222</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1047</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2255</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1807</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1205</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>748</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B9FC-9A4D-B0F1-E576D9D44270}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1580131792"/>
+        <c:axId val="1579928656"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$D$208:$D$222</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B9FC-9A4D-B0F1-E576D9D44270}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1578581168"/>
+        <c:axId val="1568143616"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1580131792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1579928656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1579928656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1580131792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1568143616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1578581168"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1578581168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1568143616"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3737,7 +4853,150 @@
 </cx:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>TP frequencies</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>TP frequencies</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{B8069D72-8B35-384C-BA3B-F2D58FE6EAAF}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binSize val="0.98999999999999999"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4057,6 +5316,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4560,7 +5859,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5063,7 +6362,515 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5566,515 +7373,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6577,7 +7876,515 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7080,7 +8887,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7583,7 +9390,1013 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8428,6 +11241,156 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>825499</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>95954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>169333</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>14111</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Diagramm 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{915D5203-582C-1B4C-A2D3-91039989076C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>373944</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>138287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>437444</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Diagramm 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F03EAA79-A823-CF4E-8F9E-78D5F8FAAC94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>529167</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>110066</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>105834</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>87488</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="16" name="Diagramm 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A90433E-6BCB-134F-BA9F-8BAB55C609CB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9390945" y="34258955"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100"/>
+                <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
+Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10114,10 +13077,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68998185-6223-B043-AFF2-49C8E87E0E3F}">
-  <dimension ref="A1:E134"/>
+  <dimension ref="A1:I222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L125" sqref="L125"/>
+    <sheetView tabSelected="1" topLeftCell="A195" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K192" sqref="K192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10147,10 +13110,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>43739</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>43740</v>
       </c>
       <c r="C2" t="s">
@@ -10162,10 +13125,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>43739</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>43742</v>
       </c>
       <c r="C3" t="s">
@@ -10180,10 +13143,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>43740</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>43748</v>
       </c>
       <c r="C4" t="s">
@@ -10198,10 +13161,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>43740</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>43742</v>
       </c>
       <c r="C5" t="s">
@@ -10213,10 +13176,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>43742</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>43747</v>
       </c>
       <c r="C6" t="s">
@@ -10231,10 +13194,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>43745</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>43747</v>
       </c>
       <c r="C7" t="s">
@@ -10246,10 +13209,10 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>43745</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="6">
         <v>43748</v>
       </c>
       <c r="C8" t="s">
@@ -10264,10 +13227,10 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>43746</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>43747</v>
       </c>
       <c r="C9" t="s">
@@ -10282,10 +13245,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <v>43747</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="6">
         <v>43749</v>
       </c>
       <c r="C10" t="s">
@@ -10300,10 +13263,10 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>43748</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="6">
         <v>43754</v>
       </c>
       <c r="C11" t="s">
@@ -10318,10 +13281,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="A12" s="6">
         <v>43749</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="6">
         <v>43753</v>
       </c>
       <c r="C12" t="s">
@@ -10333,10 +13296,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <v>43749</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="6">
         <v>43754</v>
       </c>
       <c r="C13" t="s">
@@ -10351,10 +13314,10 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="A14" s="6">
         <v>43752</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="6">
         <v>43753</v>
       </c>
       <c r="C14" t="s">
@@ -10369,10 +13332,10 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="A15" s="6">
         <v>43752</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="6">
         <v>43754</v>
       </c>
       <c r="C15" t="s">
@@ -10387,10 +13350,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="A16" s="6">
         <v>43752</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="6">
         <v>43755</v>
       </c>
       <c r="C16" t="s">
@@ -10402,10 +13365,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="A17" s="6">
         <v>43753</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="6">
         <v>43755</v>
       </c>
       <c r="C17" t="s">
@@ -10417,10 +13380,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="A18" s="6">
         <v>43754</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="6">
         <v>43756</v>
       </c>
       <c r="C18" t="s">
@@ -10435,10 +13398,10 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="A19" s="6">
         <v>43754</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="6">
         <v>43756</v>
       </c>
       <c r="C19" t="s">
@@ -10453,10 +13416,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="A20" s="6">
         <v>43755</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="6">
         <v>43756</v>
       </c>
       <c r="C20" t="s">
@@ -10471,10 +13434,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="A21" s="6">
         <v>43755</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="6">
         <v>43763</v>
       </c>
       <c r="C21" t="s">
@@ -10489,10 +13452,10 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="A22" s="6">
         <v>43756</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="6">
         <v>43759</v>
       </c>
       <c r="C22" t="s">
@@ -10504,10 +13467,10 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+      <c r="A23" s="6">
         <v>43756</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="6">
         <v>43760</v>
       </c>
       <c r="C23" t="s">
@@ -10522,10 +13485,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+      <c r="A24" s="6">
         <v>43759</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="6">
         <v>43762</v>
       </c>
       <c r="C24" t="s">
@@ -10540,10 +13503,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+      <c r="A25" s="6">
         <v>43760</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="6">
         <v>43762</v>
       </c>
       <c r="C25" t="s">
@@ -10555,10 +13518,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+      <c r="A26" s="6">
         <v>43761</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="6">
         <v>43763</v>
       </c>
       <c r="C26" t="s">
@@ -10573,10 +13536,10 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+      <c r="A27" s="6">
         <v>43762</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="6">
         <v>43766</v>
       </c>
       <c r="C27" t="s">
@@ -10591,10 +13554,10 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+      <c r="A28" s="6">
         <v>43762</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="6">
         <v>43768</v>
       </c>
       <c r="C28" t="s">
@@ -10609,10 +13572,10 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+      <c r="A29" s="6">
         <v>43763</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="6">
         <v>43766</v>
       </c>
       <c r="C29" t="s">
@@ -10627,10 +13590,10 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
+      <c r="A30" s="6">
         <v>43763</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="6">
         <v>43767</v>
       </c>
       <c r="C30" t="s">
@@ -10645,10 +13608,10 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
+      <c r="A31" s="6">
         <v>43766</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="6">
         <v>43770</v>
       </c>
       <c r="C31" t="s">
@@ -10663,10 +13626,10 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
+      <c r="A32" s="6">
         <v>43767</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="6">
         <v>43768</v>
       </c>
       <c r="C32" t="s">
@@ -10678,10 +13641,10 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
+      <c r="A33" s="6">
         <v>43767</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="6">
         <v>43775</v>
       </c>
       <c r="C33" t="s">
@@ -10696,10 +13659,10 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
+      <c r="A34" s="6">
         <v>43768</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="6">
         <v>43773</v>
       </c>
       <c r="C34" t="s">
@@ -10711,10 +13674,10 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
+      <c r="A35" s="6">
         <v>43768</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="6">
         <v>43770</v>
       </c>
       <c r="C35" t="s">
@@ -10729,10 +13692,10 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
+      <c r="A36" s="6">
         <v>43769</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="6">
         <v>43774</v>
       </c>
       <c r="C36" t="s">
@@ -10761,7 +13724,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="6">
+      <c r="A39" s="7">
         <v>1</v>
       </c>
       <c r="B39">
@@ -10775,7 +13738,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
+      <c r="A40" s="7">
         <v>2</v>
       </c>
       <c r="B40">
@@ -10789,7 +13752,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="6">
+      <c r="A41" s="7">
         <v>3</v>
       </c>
       <c r="B41">
@@ -10803,7 +13766,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
+      <c r="A42" s="7">
         <v>4</v>
       </c>
       <c r="B42">
@@ -10817,7 +13780,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="6">
+      <c r="A43" s="7">
         <v>5</v>
       </c>
       <c r="B43">
@@ -10831,7 +13794,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="6">
+      <c r="A44" s="7">
         <v>6</v>
       </c>
       <c r="B44">
@@ -10845,7 +13808,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="6">
+      <c r="A45" s="7">
         <v>8</v>
       </c>
       <c r="B45">
@@ -10859,46 +13822,46 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="6"/>
+      <c r="A46" s="7"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="6"/>
+      <c r="A47" s="7"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="6"/>
+      <c r="A48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="6"/>
+      <c r="A49" s="7"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="6"/>
+      <c r="A50" s="7"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="6"/>
+      <c r="A51" s="7"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="6"/>
+      <c r="A52" s="7"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="6"/>
+      <c r="A53" s="7"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="6"/>
+      <c r="A54" s="7"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="6"/>
+      <c r="A55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="6"/>
+      <c r="A56" s="7"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="6"/>
+      <c r="A57" s="7"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="6"/>
+      <c r="A58" s="7"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="6">
+      <c r="A59" s="7">
         <v>1</v>
       </c>
       <c r="B59">
@@ -10912,7 +13875,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="6">
+      <c r="A60" s="7">
         <v>2</v>
       </c>
       <c r="B60">
@@ -10926,7 +13889,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="6">
+      <c r="A61" s="7">
         <v>3</v>
       </c>
       <c r="B61">
@@ -10940,7 +13903,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="6">
+      <c r="A62" s="7">
         <v>4</v>
       </c>
       <c r="B62">
@@ -10954,7 +13917,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="6">
+      <c r="A63" s="7">
         <v>5</v>
       </c>
       <c r="B63">
@@ -10968,7 +13931,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="6">
+      <c r="A64" s="7">
         <v>6</v>
       </c>
       <c r="B64">
@@ -10982,7 +13945,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="6">
+      <c r="A65" s="7">
         <v>8</v>
       </c>
       <c r="B65">
@@ -10996,28 +13959,28 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="6"/>
+      <c r="A66" s="7"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="6"/>
+      <c r="A67" s="7"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="6"/>
+      <c r="A68" s="7"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="6"/>
+      <c r="A69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="6"/>
+      <c r="A70" s="7"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="6"/>
+      <c r="A71" s="7"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="6"/>
+      <c r="A72" s="7"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="6"/>
+      <c r="A73" s="7"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
@@ -11090,7 +14053,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -11665,6 +14628,1158 @@
         <v>0</v>
       </c>
       <c r="D134">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>4</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>5</v>
+      </c>
+      <c r="B140">
+        <v>21</v>
+      </c>
+      <c r="C140">
+        <v>2E-3</v>
+      </c>
+      <c r="D140">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>6</v>
+      </c>
+      <c r="B141">
+        <v>103</v>
+      </c>
+      <c r="C141">
+        <v>0.01</v>
+      </c>
+      <c r="D141">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>7</v>
+      </c>
+      <c r="B142">
+        <v>286</v>
+      </c>
+      <c r="C142">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D142">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>8</v>
+      </c>
+      <c r="B143">
+        <v>617</v>
+      </c>
+      <c r="C143">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D143">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>9</v>
+      </c>
+      <c r="B144">
+        <v>966</v>
+      </c>
+      <c r="C144">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="D144">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>10</v>
+      </c>
+      <c r="B145">
+        <v>1239</v>
+      </c>
+      <c r="C145">
+        <v>0.124</v>
+      </c>
+      <c r="D145">
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>11</v>
+      </c>
+      <c r="B146">
+        <v>1370</v>
+      </c>
+      <c r="C146">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="D146">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>12</v>
+      </c>
+      <c r="B147">
+        <v>1814</v>
+      </c>
+      <c r="C147">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="D147">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>13</v>
+      </c>
+      <c r="B148">
+        <v>1305</v>
+      </c>
+      <c r="C148">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="D148">
+        <v>77.2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>14</v>
+      </c>
+      <c r="B149">
+        <v>1044</v>
+      </c>
+      <c r="C149">
+        <v>0.104</v>
+      </c>
+      <c r="D149">
+        <v>87.7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>15</v>
+      </c>
+      <c r="B150">
+        <v>533</v>
+      </c>
+      <c r="C150">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="D150">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>16</v>
+      </c>
+      <c r="B151">
+        <v>484</v>
+      </c>
+      <c r="C151">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D151">
+        <v>97.8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>17</v>
+      </c>
+      <c r="B152">
+        <v>136</v>
+      </c>
+      <c r="C152">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D152">
+        <v>99.2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>18</v>
+      </c>
+      <c r="B153">
+        <v>54</v>
+      </c>
+      <c r="C153">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D153">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>19</v>
+      </c>
+      <c r="B154">
+        <v>19</v>
+      </c>
+      <c r="C154">
+        <v>2E-3</v>
+      </c>
+      <c r="D154">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>20</v>
+      </c>
+      <c r="B155">
+        <v>6</v>
+      </c>
+      <c r="C155">
+        <v>1E-3</v>
+      </c>
+      <c r="D155">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>21</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>24</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E166" t="s">
+        <v>31</v>
+      </c>
+      <c r="H166" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>19</v>
+      </c>
+      <c r="B167" t="s">
+        <v>20</v>
+      </c>
+      <c r="F167" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I167" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A168" s="6">
+        <v>43739</v>
+      </c>
+      <c r="B168" s="9">
+        <v>43740</v>
+      </c>
+      <c r="E168" s="6">
+        <v>43739</v>
+      </c>
+      <c r="F168" s="10"/>
+      <c r="H168" s="6">
+        <v>43739</v>
+      </c>
+      <c r="I168" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A169" s="6">
+        <v>43739</v>
+      </c>
+      <c r="B169" s="9">
+        <v>43742</v>
+      </c>
+      <c r="E169" s="6">
+        <v>43740</v>
+      </c>
+      <c r="F169" s="10">
+        <v>1</v>
+      </c>
+      <c r="H169" s="6">
+        <v>43740</v>
+      </c>
+      <c r="I169" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A170" s="6">
+        <v>43740</v>
+      </c>
+      <c r="B170" s="9">
+        <v>43748</v>
+      </c>
+      <c r="E170" s="6">
+        <v>43741</v>
+      </c>
+      <c r="F170" s="10"/>
+      <c r="H170" s="6">
+        <v>43741</v>
+      </c>
+      <c r="I170" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A171" s="6">
+        <v>43740</v>
+      </c>
+      <c r="B171" s="9">
+        <v>43742</v>
+      </c>
+      <c r="E171" s="6">
+        <v>43742</v>
+      </c>
+      <c r="F171" s="10">
+        <v>2</v>
+      </c>
+      <c r="H171" s="6">
+        <v>43742</v>
+      </c>
+      <c r="I171" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A172" s="6">
+        <v>43742</v>
+      </c>
+      <c r="B172" s="9">
+        <v>43747</v>
+      </c>
+      <c r="E172" s="11">
+        <v>43743</v>
+      </c>
+      <c r="F172" s="10"/>
+      <c r="H172" s="6">
+        <v>43745</v>
+      </c>
+      <c r="I172" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A173" s="6">
+        <v>43745</v>
+      </c>
+      <c r="B173" s="9">
+        <v>43747</v>
+      </c>
+      <c r="E173" s="11">
+        <v>43744</v>
+      </c>
+      <c r="F173" s="10"/>
+      <c r="H173" s="6">
+        <v>43746</v>
+      </c>
+      <c r="I173" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A174" s="6">
+        <v>43745</v>
+      </c>
+      <c r="B174" s="9">
+        <v>43748</v>
+      </c>
+      <c r="E174" s="6">
+        <v>43745</v>
+      </c>
+      <c r="F174" s="10"/>
+      <c r="H174" s="6">
+        <v>43747</v>
+      </c>
+      <c r="I174" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A175" s="6">
+        <v>43746</v>
+      </c>
+      <c r="B175" s="9">
+        <v>43747</v>
+      </c>
+      <c r="E175" s="6">
+        <v>43746</v>
+      </c>
+      <c r="F175" s="10"/>
+      <c r="H175" s="6">
+        <v>43748</v>
+      </c>
+      <c r="I175" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A176" s="6">
+        <v>43747</v>
+      </c>
+      <c r="B176" s="9">
+        <v>43749</v>
+      </c>
+      <c r="E176" s="6">
+        <v>43747</v>
+      </c>
+      <c r="F176" s="10">
+        <v>3</v>
+      </c>
+      <c r="H176" s="6">
+        <v>43749</v>
+      </c>
+      <c r="I176" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A177" s="6">
+        <v>43748</v>
+      </c>
+      <c r="B177" s="9">
+        <v>43754</v>
+      </c>
+      <c r="E177" s="6">
+        <v>43748</v>
+      </c>
+      <c r="F177" s="10">
+        <v>2</v>
+      </c>
+      <c r="H177" s="6">
+        <v>43752</v>
+      </c>
+      <c r="I177" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A178" s="6">
+        <v>43749</v>
+      </c>
+      <c r="B178" s="9">
+        <v>43753</v>
+      </c>
+      <c r="E178" s="6">
+        <v>43749</v>
+      </c>
+      <c r="F178" s="10">
+        <v>1</v>
+      </c>
+      <c r="H178" s="6">
+        <v>43753</v>
+      </c>
+      <c r="I178" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A179" s="6">
+        <v>43749</v>
+      </c>
+      <c r="B179" s="9">
+        <v>43754</v>
+      </c>
+      <c r="E179" s="11">
+        <v>43750</v>
+      </c>
+      <c r="F179" s="10"/>
+      <c r="H179" s="6">
+        <v>43754</v>
+      </c>
+      <c r="I179" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A180" s="6">
+        <v>43752</v>
+      </c>
+      <c r="B180" s="9">
+        <v>43753</v>
+      </c>
+      <c r="E180" s="11">
+        <v>43751</v>
+      </c>
+      <c r="F180" s="10"/>
+      <c r="H180" s="6">
+        <v>43755</v>
+      </c>
+      <c r="I180" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A181" s="6">
+        <v>43752</v>
+      </c>
+      <c r="B181" s="9">
+        <v>43754</v>
+      </c>
+      <c r="E181" s="6">
+        <v>43752</v>
+      </c>
+      <c r="F181" s="10"/>
+      <c r="H181" s="6">
+        <v>43756</v>
+      </c>
+      <c r="I181" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A182" s="6">
+        <v>43752</v>
+      </c>
+      <c r="B182" s="9">
+        <v>43755</v>
+      </c>
+      <c r="E182" s="6">
+        <v>43753</v>
+      </c>
+      <c r="F182" s="10">
+        <v>2</v>
+      </c>
+      <c r="H182" s="6">
+        <v>43759</v>
+      </c>
+      <c r="I182" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A183" s="6">
+        <v>43753</v>
+      </c>
+      <c r="B183" s="9">
+        <v>43755</v>
+      </c>
+      <c r="E183" s="6">
+        <v>43754</v>
+      </c>
+      <c r="F183" s="10">
+        <v>3</v>
+      </c>
+      <c r="H183" s="6">
+        <v>43760</v>
+      </c>
+      <c r="I183" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A184" s="6">
+        <v>43754</v>
+      </c>
+      <c r="B184" s="9">
+        <v>43756</v>
+      </c>
+      <c r="E184" s="6">
+        <v>43755</v>
+      </c>
+      <c r="F184" s="10">
+        <v>2</v>
+      </c>
+      <c r="H184" s="6">
+        <v>43761</v>
+      </c>
+      <c r="I184" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A185" s="6">
+        <v>43754</v>
+      </c>
+      <c r="B185" s="9">
+        <v>43756</v>
+      </c>
+      <c r="E185" s="6">
+        <v>43756</v>
+      </c>
+      <c r="F185" s="10">
+        <v>3</v>
+      </c>
+      <c r="H185" s="6">
+        <v>43762</v>
+      </c>
+      <c r="I185" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A186" s="6">
+        <v>43755</v>
+      </c>
+      <c r="B186" s="9">
+        <v>43756</v>
+      </c>
+      <c r="E186" s="11">
+        <v>43757</v>
+      </c>
+      <c r="F186" s="10"/>
+      <c r="H186" s="6">
+        <v>43763</v>
+      </c>
+      <c r="I186" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A187" s="6">
+        <v>43755</v>
+      </c>
+      <c r="B187" s="9">
+        <v>43763</v>
+      </c>
+      <c r="E187" s="11">
+        <v>43758</v>
+      </c>
+      <c r="F187" s="10"/>
+      <c r="H187" s="6">
+        <v>43766</v>
+      </c>
+      <c r="I187" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A188" s="6">
+        <v>43756</v>
+      </c>
+      <c r="B188" s="9">
+        <v>43759</v>
+      </c>
+      <c r="E188" s="6">
+        <v>43759</v>
+      </c>
+      <c r="F188" s="10">
+        <v>1</v>
+      </c>
+      <c r="H188" s="6">
+        <v>43767</v>
+      </c>
+      <c r="I188" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A189" s="6">
+        <v>43756</v>
+      </c>
+      <c r="B189" s="9">
+        <v>43760</v>
+      </c>
+      <c r="E189" s="6">
+        <v>43760</v>
+      </c>
+      <c r="F189" s="10">
+        <v>1</v>
+      </c>
+      <c r="H189" s="6">
+        <v>43768</v>
+      </c>
+      <c r="I189" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A190" s="6">
+        <v>43759</v>
+      </c>
+      <c r="B190" s="9">
+        <v>43762</v>
+      </c>
+      <c r="E190" s="6">
+        <v>43761</v>
+      </c>
+      <c r="F190" s="10"/>
+      <c r="H190" s="6">
+        <v>43769</v>
+      </c>
+      <c r="I190" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A191" s="6">
+        <v>43760</v>
+      </c>
+      <c r="B191" s="9">
+        <v>43762</v>
+      </c>
+      <c r="E191" s="6">
+        <v>43762</v>
+      </c>
+      <c r="F191" s="10">
+        <v>2</v>
+      </c>
+      <c r="H191" s="6">
+        <v>43770</v>
+      </c>
+      <c r="I191" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A192" s="6">
+        <v>43761</v>
+      </c>
+      <c r="B192" s="9">
+        <v>43763</v>
+      </c>
+      <c r="E192" s="6">
+        <v>43763</v>
+      </c>
+      <c r="F192" s="10">
+        <v>2</v>
+      </c>
+      <c r="H192" s="6">
+        <v>43773</v>
+      </c>
+      <c r="I192" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A193" s="6">
+        <v>43762</v>
+      </c>
+      <c r="B193" s="9">
+        <v>43766</v>
+      </c>
+      <c r="E193" s="11">
+        <v>43764</v>
+      </c>
+      <c r="F193" s="10"/>
+      <c r="H193" s="6">
+        <v>43774</v>
+      </c>
+      <c r="I193" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A194" s="6">
+        <v>43762</v>
+      </c>
+      <c r="B194" s="6">
+        <v>43768</v>
+      </c>
+      <c r="E194" s="11">
+        <v>43765</v>
+      </c>
+      <c r="F194" s="10"/>
+      <c r="H194" s="6">
+        <v>43775</v>
+      </c>
+      <c r="I194" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A195" s="6">
+        <v>43763</v>
+      </c>
+      <c r="B195" s="6">
+        <v>43766</v>
+      </c>
+      <c r="E195" s="6">
+        <v>43766</v>
+      </c>
+      <c r="F195" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A196" s="6">
+        <v>43763</v>
+      </c>
+      <c r="B196" s="6">
+        <v>43767</v>
+      </c>
+      <c r="E196" s="6">
+        <v>43767</v>
+      </c>
+      <c r="F196" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A197" s="6">
+        <v>43766</v>
+      </c>
+      <c r="B197" s="6">
+        <v>43770</v>
+      </c>
+      <c r="E197" s="6">
+        <v>43768</v>
+      </c>
+      <c r="F197" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A198" s="6">
+        <v>43767</v>
+      </c>
+      <c r="B198" s="6">
+        <v>43768</v>
+      </c>
+      <c r="E198" s="6">
+        <v>43769</v>
+      </c>
+      <c r="F198" s="10"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A199" s="6">
+        <v>43767</v>
+      </c>
+      <c r="B199" s="6">
+        <v>43775</v>
+      </c>
+      <c r="E199" s="6">
+        <v>43770</v>
+      </c>
+      <c r="F199" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A200" s="6">
+        <v>43768</v>
+      </c>
+      <c r="B200" s="6">
+        <v>43773</v>
+      </c>
+      <c r="E200" s="11">
+        <v>43771</v>
+      </c>
+      <c r="F200" s="10"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A201" s="6">
+        <v>43768</v>
+      </c>
+      <c r="B201" s="6">
+        <v>43770</v>
+      </c>
+      <c r="E201" s="11">
+        <v>43772</v>
+      </c>
+      <c r="F201" s="10"/>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A202" s="6">
+        <v>43769</v>
+      </c>
+      <c r="B202" s="6">
+        <v>43774</v>
+      </c>
+      <c r="E202" s="6">
+        <v>43773</v>
+      </c>
+      <c r="F202" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A203" s="5"/>
+      <c r="E203" s="6">
+        <v>43774</v>
+      </c>
+      <c r="F203" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E204" s="6">
+        <v>43775</v>
+      </c>
+      <c r="F204" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E205" s="5"/>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E206" s="5"/>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E207" s="5"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>3</v>
+      </c>
+      <c r="B208">
+        <v>133</v>
+      </c>
+      <c r="C208">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D208">
+        <v>1.3</v>
+      </c>
+      <c r="E208" s="5"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>4</v>
+      </c>
+      <c r="B209">
+        <v>1047</v>
+      </c>
+      <c r="C209">
+        <v>0.105</v>
+      </c>
+      <c r="D209">
+        <v>11.8</v>
+      </c>
+      <c r="E209" s="5"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>5</v>
+      </c>
+      <c r="B210">
+        <v>2046</v>
+      </c>
+      <c r="C210">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="D210">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="E210" s="5"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>8</v>
+      </c>
+      <c r="B211">
+        <v>2255</v>
+      </c>
+      <c r="C211">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="D211">
+        <v>54.8</v>
+      </c>
+      <c r="E211" s="5"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>9</v>
+      </c>
+      <c r="B212">
+        <v>1807</v>
+      </c>
+      <c r="C212">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="D212">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="E212" s="5"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>10</v>
+      </c>
+      <c r="B213">
+        <v>1205</v>
+      </c>
+      <c r="C213">
+        <v>0.121</v>
+      </c>
+      <c r="D213">
+        <v>84.9</v>
+      </c>
+      <c r="E213" s="5"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>11</v>
+      </c>
+      <c r="B214">
+        <v>748</v>
+      </c>
+      <c r="C214">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D214">
+        <v>92.4</v>
+      </c>
+      <c r="E214" s="5"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>12</v>
+      </c>
+      <c r="B215">
+        <v>382</v>
+      </c>
+      <c r="C215">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D215">
+        <v>96.2</v>
+      </c>
+      <c r="E215" s="5"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>15</v>
+      </c>
+      <c r="B216">
+        <v>197</v>
+      </c>
+      <c r="C216">
+        <v>0.02</v>
+      </c>
+      <c r="D216">
+        <v>98.2</v>
+      </c>
+      <c r="E216" s="5"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>16</v>
+      </c>
+      <c r="B217">
+        <v>123</v>
+      </c>
+      <c r="C217">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D217">
+        <v>99.4</v>
+      </c>
+      <c r="E217" s="5"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>17</v>
+      </c>
+      <c r="B218">
+        <v>34</v>
+      </c>
+      <c r="C218">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D218">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>18</v>
+      </c>
+      <c r="B219">
+        <v>15</v>
+      </c>
+      <c r="C219">
+        <v>2E-3</v>
+      </c>
+      <c r="D219">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>19</v>
+      </c>
+      <c r="B220">
+        <v>6</v>
+      </c>
+      <c r="C220">
+        <v>1E-3</v>
+      </c>
+      <c r="D220">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>22</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>23</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
         <v>100</v>
       </c>
     </row>

--- a/doc/examples.xlsx
+++ b/doc/examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ralfw/Projects/06 entwicklungen/NMCForecasting.github/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B032E4F7-F460-EB4C-9BF8-F5BF987EB825}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F0F909-05C1-D940-B3D4-7ECDCAF08766}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17040" activeTab="2" xr2:uid="{E6411D16-3D34-DF47-BAC5-62BB5C1AB095}"/>
   </bookViews>
@@ -19,19 +19,20 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Tabelle1!$A$1:$E$36</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Tabelle1!$A$139:$A$157</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Tabelle1!$B$139:$B$157</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Tabelle1!$D$208:$D$222</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Tabelle1!$I$168:$I$194</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Tabelle1!$I$168:$I$194</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Tabelle1!$D$139:$D$157</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Tabelle1!$A$139:$A$157</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Tabelle1!$B$139:$B$157</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Tabelle1!$D$139:$D$157</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Tabelle1!$E$2:$E$36</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Tabelle1!$I$168:$I$194</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Tabelle1!$A$208:$A$222</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Tabelle1!$B$208:$B$222</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Tabelle1!$Q$30:$Q$52</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Tabelle1!$R$30:$R$52</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Tabelle1!$T$56:$T$90</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Tabelle1!$Q$56:$Q$90</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Tabelle1!$R$56:$R$90</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Tabelle1!$T$56:$T$90</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Tabelle1!$T$30:$T$52</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Tabelle1!$E$2:$E$36</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Tabelle1!$O$2:$O$9</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Tabelle1!$I$168:$I$194</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Tabelle1!$O$2:$O$9</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Tabelle1!$O$2:$O$9</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Tabelle1!$Q$56:$Q$90</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Tabelle1!$R$56:$R$90</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="47">
   <si>
     <t>Frequency</t>
   </si>
@@ -123,6 +124,9 @@
     <t>Cycle Time</t>
   </si>
   <si>
+    <t>bug</t>
+  </si>
+  <si>
     <t>feature,frontend</t>
   </si>
   <si>
@@ -149,6 +153,45 @@
   <si>
     <t>no weekends</t>
   </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t>Issues</t>
+  </si>
+  <si>
+    <t>T-Shirt Size</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Number of issues</t>
+  </si>
+  <si>
+    <t>Bugs have to be added to feature issues!</t>
+  </si>
+  <si>
+    <t>feature issues</t>
+  </si>
+  <si>
+    <t>bug issues</t>
+  </si>
+  <si>
+    <t>bug/feature ratio</t>
+  </si>
+  <si>
+    <t>Simulation of number of issues (features + bugs) given 10 stories</t>
+  </si>
+  <si>
+    <t>Simulaton of CT for the 83% issues (48)</t>
+  </si>
 </sst>
 </file>
 
@@ -157,10 +200,25 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -180,7 +238,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,6 +248,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,10 +267,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -216,15 +281,23 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -627,6 +700,1622 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Number of issues per story</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$Q$2:$Q$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$R$2:$R$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BE7C-3C4D-9EBD-90EEE2DC171E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1582419744"/>
+        <c:axId val="1582421376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1582419744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1582421376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1582421376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1582419744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Issues</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> from stories forecast (10 stories)</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$Q$30:$Q$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$R$30:$R$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>754</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1141</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1179</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1201</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>819</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>597</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-51AD-8B48-B4FF-DA5544B68AFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1628535616"/>
+        <c:axId val="1628537248"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$T$30:$T$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>53.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>75.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>89.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>94.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>96.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>98.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>99.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>99.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-51AD-8B48-B4FF-DA5544B68AFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1614035824"/>
+        <c:axId val="1581101664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1628535616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1628537248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1628537248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1628535616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1581101664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1614035824"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1614035824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1581101664"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Delivery forecast for forecasted issues</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$Q$56:$Q$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$R$56:$R$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>802</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>888</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>904</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>854</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>816</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F5E8-DC47-AA37-491A660308EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1582677552"/>
+        <c:axId val="1616910176"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$T$56:$T$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>69.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>76.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>81.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>86.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>90.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>95.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>96.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>97.7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>98.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>99.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>99.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>99.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>99.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>99.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>99.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F5E8-DC47-AA37-491A660308EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1616638624"/>
+        <c:axId val="1616326480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1582677552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1616910176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1616910176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1582677552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1616326480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1616638624"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1616638624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1616326480"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4795,7 +6484,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4858,7 +6547,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4997,6 +6686,126 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6870,6 +8679,1515 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -11213,7 +14531,7 @@
       <xdr:rowOff>101599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>649111</xdr:colOff>
       <xdr:row>118</xdr:row>
       <xdr:rowOff>126999</xdr:rowOff>
@@ -11249,7 +14567,7 @@
       <xdr:rowOff>95954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>169333</xdr:colOff>
       <xdr:row>161</xdr:row>
       <xdr:rowOff>14111</xdr:rowOff>
@@ -11285,7 +14603,7 @@
       <xdr:rowOff>138287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>437444</xdr:colOff>
       <xdr:row>229</xdr:row>
       <xdr:rowOff>126999</xdr:rowOff>
@@ -11321,7 +14639,7 @@
       <xdr:rowOff>110066</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>105834</xdr:colOff>
       <xdr:row>186</xdr:row>
       <xdr:rowOff>87488</xdr:rowOff>
@@ -11389,6 +14707,114 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>712610</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>110066</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>627944</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>87488</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Diagramm 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6E43030-D286-2E4C-9348-651685E276B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>818444</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>67732</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>409222</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>98778</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Diagramm 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{215080B4-22F4-B24F-9DFF-268809FBEA51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>825499</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>53622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>395111</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>28222</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Diagramm 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA53EADC-0A16-B64E-8047-F7D471D2FF5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -13077,10 +16503,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68998185-6223-B043-AFF2-49C8E87E0E3F}">
-  <dimension ref="A1:I222"/>
+  <dimension ref="A1:T222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K192" sqref="K192"/>
+    <sheetView tabSelected="1" topLeftCell="K49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AG76" sqref="AG76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13090,9 +16516,14 @@
     <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="9.83203125" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="13" max="13" width="7.1640625" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" customWidth="1"/>
+    <col min="17" max="17" width="15.5" customWidth="1"/>
+    <col min="18" max="18" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -13108,8 +16539,23 @@
       <c r="E1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>43739</v>
       </c>
@@ -13117,14 +16563,29 @@
         <v>43740</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <f>B2-A2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="M2" s="10">
+        <v>1</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>2</v>
+      </c>
+      <c r="R2" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>43739</v>
       </c>
@@ -13132,7 +16593,7 @@
         <v>43742</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -13141,8 +16602,23 @@
         <f t="shared" ref="E3:E36" si="0">B3-A3</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="M3" s="10">
+        <v>2</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>3</v>
+      </c>
+      <c r="R3" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>43740</v>
       </c>
@@ -13150,7 +16626,7 @@
         <v>43748</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -13159,8 +16635,23 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="M4" s="10">
+        <v>3</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>4</v>
+      </c>
+      <c r="R4" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>43740</v>
       </c>
@@ -13168,14 +16659,29 @@
         <v>43742</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="M5" s="10">
+        <v>4</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>5</v>
+      </c>
+      <c r="R5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>43742</v>
       </c>
@@ -13183,7 +16689,7 @@
         <v>43747</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -13192,8 +16698,17 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="M6" s="10">
+        <v>5</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>43745</v>
       </c>
@@ -13201,14 +16716,26 @@
         <v>43747</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="M7" s="10">
+        <v>6</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>43745</v>
       </c>
@@ -13216,7 +16743,7 @@
         <v>43748</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -13225,8 +16752,23 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="M8" s="10">
+        <v>7</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>10</v>
+      </c>
+      <c r="R8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>43746</v>
       </c>
@@ -13234,7 +16776,7 @@
         <v>43747</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -13243,8 +16785,24 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="M9" s="10">
+        <v>8</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="10">
+        <f>SUM(O2:O9)</f>
+        <v>25</v>
+      </c>
+      <c r="R9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>43747</v>
       </c>
@@ -13252,7 +16810,7 @@
         <v>43749</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -13261,8 +16819,21 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="M10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="14">
+        <f>Q8/Q9</f>
+        <v>0.4</v>
+      </c>
+      <c r="R10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>43748</v>
       </c>
@@ -13270,7 +16841,7 @@
         <v>43754</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -13280,7 +16851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>43749</v>
       </c>
@@ -13288,14 +16859,14 @@
         <v>43753</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>43749</v>
       </c>
@@ -13303,7 +16874,7 @@
         <v>43754</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -13313,7 +16884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>43752</v>
       </c>
@@ -13321,7 +16892,7 @@
         <v>43753</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -13331,7 +16902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>43752</v>
       </c>
@@ -13339,7 +16910,7 @@
         <v>43754</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -13348,8 +16919,14 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>43752</v>
       </c>
@@ -13357,14 +16934,20 @@
         <v>43755</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N16" s="10">
+        <v>2</v>
+      </c>
+      <c r="O16" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>43753</v>
       </c>
@@ -13372,14 +16955,20 @@
         <v>43755</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N17" s="10">
+        <v>3</v>
+      </c>
+      <c r="O17" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>43754</v>
       </c>
@@ -13387,7 +16976,7 @@
         <v>43756</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -13396,8 +16985,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="O18" s="10"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>43754</v>
       </c>
@@ -13405,7 +16998,7 @@
         <v>43756</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19">
         <v>5</v>
@@ -13414,8 +17007,14 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N19" s="10">
+        <v>2</v>
+      </c>
+      <c r="O19" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>43755</v>
       </c>
@@ -13423,7 +17022,7 @@
         <v>43756</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -13432,8 +17031,14 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N20" s="10">
+        <v>3</v>
+      </c>
+      <c r="O20" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>43755</v>
       </c>
@@ -13441,7 +17046,7 @@
         <v>43763</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -13450,8 +17055,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N21" s="10">
+        <v>4</v>
+      </c>
+      <c r="O21" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>43756</v>
       </c>
@@ -13459,14 +17070,18 @@
         <v>43759</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N22" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="O22" s="10"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>43756</v>
       </c>
@@ -13474,7 +17089,7 @@
         <v>43760</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -13483,8 +17098,14 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N23" s="10">
+        <v>2</v>
+      </c>
+      <c r="O23" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>43759</v>
       </c>
@@ -13492,7 +17113,7 @@
         <v>43762</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D24">
         <v>5</v>
@@ -13501,8 +17122,14 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N24" s="10">
+        <v>5</v>
+      </c>
+      <c r="O24" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>43760</v>
       </c>
@@ -13510,14 +17137,14 @@
         <v>43762</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>43761</v>
       </c>
@@ -13525,7 +17152,7 @@
         <v>43763</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26">
         <v>6</v>
@@ -13535,7 +17162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>43762</v>
       </c>
@@ -13543,7 +17170,7 @@
         <v>43766</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D27">
         <v>6</v>
@@ -13553,7 +17180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>43762</v>
       </c>
@@ -13561,7 +17188,7 @@
         <v>43768</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D28">
         <v>7</v>
@@ -13571,7 +17198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>43763</v>
       </c>
@@ -13579,7 +17206,7 @@
         <v>43766</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D29">
         <v>7</v>
@@ -13588,8 +17215,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="Q29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>43763</v>
       </c>
@@ -13597,7 +17227,7 @@
         <v>43767</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D30">
         <v>4</v>
@@ -13606,8 +17236,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="Q30">
+        <v>29</v>
+      </c>
+      <c r="R30">
+        <v>5</v>
+      </c>
+      <c r="S30">
+        <v>1E-3</v>
+      </c>
+      <c r="T30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>43766</v>
       </c>
@@ -13615,7 +17257,7 @@
         <v>43770</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D31">
         <v>7</v>
@@ -13624,8 +17266,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="Q31">
+        <v>31</v>
+      </c>
+      <c r="R31">
+        <v>11</v>
+      </c>
+      <c r="S31">
+        <v>1E-3</v>
+      </c>
+      <c r="T31">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>43767</v>
       </c>
@@ -13633,14 +17287,26 @@
         <v>43768</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="Q32">
+        <v>32</v>
+      </c>
+      <c r="R32">
+        <v>25</v>
+      </c>
+      <c r="S32">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="T32">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>43767</v>
       </c>
@@ -13648,7 +17314,7 @@
         <v>43775</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D33">
         <v>7</v>
@@ -13657,8 +17323,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="Q33">
+        <v>34</v>
+      </c>
+      <c r="R33">
+        <v>104</v>
+      </c>
+      <c r="S33">
+        <v>0.01</v>
+      </c>
+      <c r="T33">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>43768</v>
       </c>
@@ -13666,14 +17344,26 @@
         <v>43773</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="Q34">
+        <v>35</v>
+      </c>
+      <c r="R34">
+        <v>216</v>
+      </c>
+      <c r="S34">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="T34">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>43768</v>
       </c>
@@ -13681,7 +17371,7 @@
         <v>43770</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D35">
         <v>8</v>
@@ -13690,8 +17380,20 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="Q35">
+        <v>36</v>
+      </c>
+      <c r="R35">
+        <v>343</v>
+      </c>
+      <c r="S35">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="T35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>43769</v>
       </c>
@@ -13699,7 +17401,7 @@
         <v>43774</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D36">
         <v>8</v>
@@ -13708,10 +17410,36 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="Q36">
+        <v>38</v>
+      </c>
+      <c r="R36">
+        <v>546</v>
+      </c>
+      <c r="S36">
+        <v>5.5E-2</v>
+      </c>
+      <c r="T36">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q37">
+        <v>39</v>
+      </c>
+      <c r="R37">
+        <v>754</v>
+      </c>
+      <c r="S37">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="T37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B38" t="s">
         <v>17</v>
@@ -13722,8 +17450,20 @@
       <c r="D38" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="Q38">
+        <v>41</v>
+      </c>
+      <c r="R38">
+        <v>1017</v>
+      </c>
+      <c r="S38">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="T38">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>1</v>
       </c>
@@ -13736,8 +17476,20 @@
       <c r="D39">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="Q39">
+        <v>42</v>
+      </c>
+      <c r="R39">
+        <v>1141</v>
+      </c>
+      <c r="S39">
+        <v>0.114</v>
+      </c>
+      <c r="T39">
+        <v>41.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>2</v>
       </c>
@@ -13750,8 +17502,20 @@
       <c r="D40">
         <v>42.9</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="Q40">
+        <v>43</v>
+      </c>
+      <c r="R40">
+        <v>1179</v>
+      </c>
+      <c r="S40">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="T40">
+        <v>53.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>3</v>
       </c>
@@ -13764,8 +17528,20 @@
       <c r="D41">
         <v>60</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="Q41">
+        <v>45</v>
+      </c>
+      <c r="R41">
+        <v>1201</v>
+      </c>
+      <c r="S41">
+        <v>0.12</v>
+      </c>
+      <c r="T41">
+        <v>65.400000000000006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>4</v>
       </c>
@@ -13778,8 +17554,20 @@
       <c r="D42">
         <v>74.3</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="Q42">
+        <v>46</v>
+      </c>
+      <c r="R42">
+        <v>1003</v>
+      </c>
+      <c r="S42">
+        <v>0.1</v>
+      </c>
+      <c r="T42">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>5</v>
       </c>
@@ -13792,8 +17580,20 @@
       <c r="D43">
         <v>85.7</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="Q43">
+        <v>48</v>
+      </c>
+      <c r="R43">
+        <v>819</v>
+      </c>
+      <c r="S43">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="T43">
+        <v>83.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>6</v>
       </c>
@@ -13806,8 +17606,20 @@
       <c r="D44">
         <v>91.4</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="Q44">
+        <v>49</v>
+      </c>
+      <c r="R44">
+        <v>597</v>
+      </c>
+      <c r="S44">
+        <v>0.06</v>
+      </c>
+      <c r="T44">
+        <v>89.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>8</v>
       </c>
@@ -13820,47 +17632,182 @@
       <c r="D45">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="Q45">
+        <v>50</v>
+      </c>
+      <c r="R45">
+        <v>462</v>
+      </c>
+      <c r="S45">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="T45">
+        <v>94.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="Q46">
+        <v>52</v>
+      </c>
+      <c r="R46">
+        <v>268</v>
+      </c>
+      <c r="S46">
+        <v>2.7E-2</v>
+      </c>
+      <c r="T46">
+        <v>96.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="Q47">
+        <v>53</v>
+      </c>
+      <c r="R47">
+        <v>142</v>
+      </c>
+      <c r="S47">
+        <v>1.4E-2</v>
+      </c>
+      <c r="T47">
+        <v>98.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="Q48">
+        <v>55</v>
+      </c>
+      <c r="R48">
+        <v>95</v>
+      </c>
+      <c r="S48">
+        <v>0.01</v>
+      </c>
+      <c r="T48">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="Q49">
+        <v>56</v>
+      </c>
+      <c r="R49">
+        <v>48</v>
+      </c>
+      <c r="S49">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="T49">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="7"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="Q50">
+        <v>57</v>
+      </c>
+      <c r="R50">
+        <v>14</v>
+      </c>
+      <c r="S50">
+        <v>1E-3</v>
+      </c>
+      <c r="T50">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="Q51">
+        <v>59</v>
+      </c>
+      <c r="R51">
+        <v>6</v>
+      </c>
+      <c r="S51">
+        <v>1E-3</v>
+      </c>
+      <c r="T51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="Q52">
+        <v>60</v>
+      </c>
+      <c r="R52">
+        <v>4</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="Q55" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="7"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="Q56">
+        <v>31</v>
+      </c>
+      <c r="R56">
+        <v>1</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="Q57">
+        <v>32</v>
+      </c>
+      <c r="R57">
+        <v>1</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="Q58">
+        <v>33</v>
+      </c>
+      <c r="R58">
+        <v>5</v>
+      </c>
+      <c r="S58">
+        <v>1E-3</v>
+      </c>
+      <c r="T58">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>1</v>
       </c>
@@ -13873,8 +17820,20 @@
       <c r="D59">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="Q59">
+        <v>36</v>
+      </c>
+      <c r="R59">
+        <v>24</v>
+      </c>
+      <c r="S59">
+        <v>2E-3</v>
+      </c>
+      <c r="T59">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>2</v>
       </c>
@@ -13887,8 +17846,20 @@
       <c r="D60">
         <v>36</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="Q60">
+        <v>37</v>
+      </c>
+      <c r="R60">
+        <v>44</v>
+      </c>
+      <c r="S60">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="T60">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>3</v>
       </c>
@@ -13901,8 +17872,20 @@
       <c r="D61">
         <v>52</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="Q61">
+        <v>38</v>
+      </c>
+      <c r="R61">
+        <v>72</v>
+      </c>
+      <c r="S61">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="T61">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>4</v>
       </c>
@@ -13915,8 +17898,20 @@
       <c r="D62">
         <v>68</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="Q62">
+        <v>39</v>
+      </c>
+      <c r="R62">
+        <v>137</v>
+      </c>
+      <c r="S62">
+        <v>1.4E-2</v>
+      </c>
+      <c r="T62">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>5</v>
       </c>
@@ -13929,8 +17924,20 @@
       <c r="D63">
         <v>80</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="Q63">
+        <v>40</v>
+      </c>
+      <c r="R63">
+        <v>219</v>
+      </c>
+      <c r="S63">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="T63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>6</v>
       </c>
@@ -13943,8 +17950,20 @@
       <c r="D64">
         <v>88</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="Q64">
+        <v>43</v>
+      </c>
+      <c r="R64">
+        <v>326</v>
+      </c>
+      <c r="S64">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="T64">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
         <v>8</v>
       </c>
@@ -13957,32 +17976,168 @@
       <c r="D65">
         <v>100</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="Q65">
+        <v>44</v>
+      </c>
+      <c r="R65">
+        <v>495</v>
+      </c>
+      <c r="S65">
+        <v>0.05</v>
+      </c>
+      <c r="T65">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="Q66">
+        <v>45</v>
+      </c>
+      <c r="R66">
+        <v>631</v>
+      </c>
+      <c r="S66">
+        <v>6.3E-2</v>
+      </c>
+      <c r="T66">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="7"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="Q67">
+        <v>46</v>
+      </c>
+      <c r="R67">
+        <v>745</v>
+      </c>
+      <c r="S67">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="T67">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="Q68">
+        <v>47</v>
+      </c>
+      <c r="R68">
+        <v>802</v>
+      </c>
+      <c r="S68">
+        <v>0.08</v>
+      </c>
+      <c r="T68">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="7"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="Q69">
+        <v>50</v>
+      </c>
+      <c r="R69">
+        <v>888</v>
+      </c>
+      <c r="S69">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="T69">
+        <v>43.9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="7"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="Q70">
+        <v>51</v>
+      </c>
+      <c r="R70">
+        <v>904</v>
+      </c>
+      <c r="S70">
+        <v>0.09</v>
+      </c>
+      <c r="T70">
+        <v>52.9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="Q71">
+        <v>52</v>
+      </c>
+      <c r="R71">
+        <v>854</v>
+      </c>
+      <c r="S71">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="T71">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="Q72">
+        <v>53</v>
+      </c>
+      <c r="R72">
+        <v>816</v>
+      </c>
+      <c r="S72">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="T72">
+        <v>69.599999999999994</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="7"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="Q73">
+        <v>54</v>
+      </c>
+      <c r="R73">
+        <v>662</v>
+      </c>
+      <c r="S73">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="T73">
+        <v>76.3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q74">
+        <v>57</v>
+      </c>
+      <c r="R74">
+        <v>538</v>
+      </c>
+      <c r="S74">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="T74">
+        <v>81.599999999999994</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q75">
+        <v>58</v>
+      </c>
+      <c r="R75">
+        <v>474</v>
+      </c>
+      <c r="S75">
+        <v>4.7E-2</v>
+      </c>
+      <c r="T75">
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1</v>
       </c>
@@ -13995,8 +18150,20 @@
       <c r="D76">
         <v>20</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="Q76">
+        <v>59</v>
+      </c>
+      <c r="R76">
+        <v>372</v>
+      </c>
+      <c r="S76">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="T76">
+        <v>90.1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2</v>
       </c>
@@ -14009,8 +18176,20 @@
       <c r="D77">
         <v>60</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="Q77">
+        <v>60</v>
+      </c>
+      <c r="R77">
+        <v>294</v>
+      </c>
+      <c r="S77">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="T77">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>3</v>
       </c>
@@ -14023,8 +18202,20 @@
       <c r="D78">
         <v>80</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="Q78">
+        <v>61</v>
+      </c>
+      <c r="R78">
+        <v>201</v>
+      </c>
+      <c r="S78">
+        <v>0.02</v>
+      </c>
+      <c r="T78">
+        <v>95.1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>4</v>
       </c>
@@ -14037,8 +18228,20 @@
       <c r="D79">
         <v>90</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="Q79">
+        <v>64</v>
+      </c>
+      <c r="R79">
+        <v>154</v>
+      </c>
+      <c r="S79">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="T79">
+        <v>96.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>5</v>
       </c>
@@ -14051,13 +18254,165 @@
       <c r="D80">
         <v>100</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="Q80">
+        <v>65</v>
+      </c>
+      <c r="R80">
+        <v>108</v>
+      </c>
+      <c r="S80">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="T80">
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q81">
+        <v>66</v>
+      </c>
+      <c r="R81">
+        <v>92</v>
+      </c>
+      <c r="S81">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="T81">
+        <v>98.6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q82">
+        <v>67</v>
+      </c>
+      <c r="R82">
+        <v>61</v>
+      </c>
+      <c r="S82">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="T82">
+        <v>99.2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q83">
+        <v>68</v>
+      </c>
+      <c r="R83">
+        <v>30</v>
+      </c>
+      <c r="S83">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="T83">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q84">
+        <v>71</v>
+      </c>
+      <c r="R84">
+        <v>24</v>
+      </c>
+      <c r="S84">
+        <v>2E-3</v>
+      </c>
+      <c r="T84">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q85">
+        <v>72</v>
+      </c>
+      <c r="R85">
+        <v>12</v>
+      </c>
+      <c r="S85">
+        <v>1E-3</v>
+      </c>
+      <c r="T85">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q86">
+        <v>73</v>
+      </c>
+      <c r="R86">
+        <v>7</v>
+      </c>
+      <c r="S86">
+        <v>1E-3</v>
+      </c>
+      <c r="T86">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q87">
+        <v>74</v>
+      </c>
+      <c r="R87">
+        <v>1</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q88">
+        <v>75</v>
+      </c>
+      <c r="R88">
+        <v>4</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q89">
+        <v>80</v>
+      </c>
+      <c r="R89">
+        <v>1</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q90">
+        <v>81</v>
+      </c>
+      <c r="R90">
+        <v>1</v>
+      </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>12</v>
       </c>
@@ -14071,7 +18426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>13</v>
       </c>
@@ -14085,7 +18440,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>14</v>
       </c>
@@ -14899,10 +19254,10 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E166" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H166" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
@@ -14913,10 +19268,10 @@
         <v>20</v>
       </c>
       <c r="F167" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I167" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">

--- a/doc/examples.xlsx
+++ b/doc/examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ralfw/Projects/06 entwicklungen/NMCForecasting.github/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D67405F-6A80-544D-8CDD-E0312FC47FC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2ABB6A-98EC-5E41-86ED-BCE88921EF52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17040" activeTab="2" xr2:uid="{E6411D16-3D34-DF47-BAC5-62BB5C1AB095}"/>
   </bookViews>
@@ -20,19 +20,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'software delivery'!$A$1:$E$36</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'rolling a dice'!$D$2:$D$7</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'rolling a dice'!$E$2:$E$7</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'software delivery'!$Q$94:$Q$154</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'software delivery'!$R$94:$R$154</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'software delivery'!$T$94:$T$154</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'rolling a dice'!$C$2:$C$7</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'rolling a dice'!$D$2:$D$7</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'rolling a dice'!$F$2:$F$7</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'software delivery'!$E$2:$E$36</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'software delivery'!$I$168:$I$194</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'software delivery'!$Q$94:$Q$154</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'software delivery'!$R$94:$R$154</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'software delivery'!$T$94:$T$154</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'software delivery'!$I$168:$I$194</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'software delivery'!$E$2:$E$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="60">
   <si>
     <t>Frequency</t>
   </si>
@@ -219,6 +208,18 @@
   <si>
     <t>Simulation of delivery for all possible numbers of issues for stories</t>
   </si>
+  <si>
+    <t>Arriving</t>
+  </si>
+  <si>
+    <t>Leaving</t>
+  </si>
+  <si>
+    <t>Arrived</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
 </sst>
 </file>
 
@@ -319,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -358,6 +359,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -816,6 +818,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1630925824"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3919,6 +3922,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1629291344"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3977,6 +3981,863 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Cumulativ Flow Diagram</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Started</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'software delivery'!$AH$2:$AH$38</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>43739</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43740</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43741</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43742</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43743</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43744</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43745</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43746</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43747</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43748</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43749</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43751</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43752</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43753</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43754</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43755</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43756</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43757</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43758</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43759</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43760</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43761</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43762</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43763</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43764</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43765</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43766</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43767</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43768</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43769</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43770</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43771</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43772</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43773</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43774</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43775</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'software delivery'!$AJ$2:$AJ$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5DF0-2A48-9C99-CFAA09EFD325}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Completed</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'software delivery'!$AH$2:$AH$38</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>43739</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43740</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43741</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43742</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43743</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43744</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43745</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43746</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43747</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43748</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43749</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43751</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43752</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43753</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43754</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43755</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43756</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43757</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43758</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43759</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43760</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43761</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43762</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43763</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43764</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43765</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43766</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43767</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43768</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43769</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43770</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43771</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43772</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43773</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43774</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43775</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'software delivery'!$AL$2:$AL$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5DF0-2A48-9C99-CFAA09EFD325}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1618255904"/>
+        <c:axId val="1646049712"/>
+      </c:areaChart>
+      <c:dateAx>
+        <c:axId val="1618255904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1646049712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1646049712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> of issues</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1618255904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -4381,6 +5242,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1617538944"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4798,6 +5660,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1632824080"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -5422,6 +6285,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1617231408"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -8504,7 +9368,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8567,7 +9431,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8985,6 +9849,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -13335,6 +14239,527 @@
 </file>
 
 <file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18510,7 +19935,7 @@
       <xdr:rowOff>177801</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>122</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -18533,6 +19958,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>542103</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>35278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>82315</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>141111</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3803DE06-324C-B746-A859-2F013BF34168}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -20514,10 +21975,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68998185-6223-B043-AFF2-49C8E87E0E3F}">
-  <dimension ref="A1:T222"/>
+  <dimension ref="A1:AL222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F91" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X148" sqref="X148"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="47" zoomScaleNormal="47" workbookViewId="0">
+      <selection activeCell="AA156" sqref="AA156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20532,9 +21993,12 @@
     <col min="15" max="15" width="7.33203125" customWidth="1"/>
     <col min="17" max="17" width="15.5" customWidth="1"/>
     <col min="18" max="18" width="12.83203125" customWidth="1"/>
+    <col min="35" max="36" width="8.1640625" customWidth="1"/>
+    <col min="37" max="37" width="7.6640625" customWidth="1"/>
+    <col min="38" max="38" width="5.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -20565,8 +22029,20 @@
       <c r="R1" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AI1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>43739</v>
       </c>
@@ -20595,8 +22071,29 @@
       <c r="R2" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AF2" s="6">
+        <v>43739</v>
+      </c>
+      <c r="AG2" s="6">
+        <v>43740</v>
+      </c>
+      <c r="AH2" s="6">
+        <v>43739</v>
+      </c>
+      <c r="AI2" s="22">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="22">
+        <f>AI2</f>
+        <v>2</v>
+      </c>
+      <c r="AK2" s="10"/>
+      <c r="AL2">
+        <f>AK2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>43739</v>
       </c>
@@ -20628,8 +22125,31 @@
       <c r="R3" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AF3" s="6">
+        <v>43739</v>
+      </c>
+      <c r="AG3" s="6">
+        <v>43742</v>
+      </c>
+      <c r="AH3" s="6">
+        <v>43740</v>
+      </c>
+      <c r="AI3" s="22">
+        <v>2</v>
+      </c>
+      <c r="AJ3" s="22">
+        <f>AJ2+AI3</f>
+        <v>4</v>
+      </c>
+      <c r="AK3" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="22">
+        <f>AL2+AK3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>43740</v>
       </c>
@@ -20661,8 +22181,27 @@
       <c r="R4" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AF4" s="6">
+        <v>43740</v>
+      </c>
+      <c r="AG4" s="6">
+        <v>43748</v>
+      </c>
+      <c r="AH4" s="6">
+        <v>43741</v>
+      </c>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="22">
+        <f t="shared" ref="AJ4:AJ38" si="1">AJ3+AI4</f>
+        <v>4</v>
+      </c>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="22">
+        <f t="shared" ref="AL4:AL38" si="2">AL3+AK4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>43740</v>
       </c>
@@ -20691,8 +22230,31 @@
       <c r="R5" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AF5" s="6">
+        <v>43740</v>
+      </c>
+      <c r="AG5" s="6">
+        <v>43742</v>
+      </c>
+      <c r="AH5" s="6">
+        <v>43742</v>
+      </c>
+      <c r="AI5" s="22">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="22">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AK5" s="10">
+        <v>2</v>
+      </c>
+      <c r="AL5" s="22">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>43742</v>
       </c>
@@ -20718,8 +22280,27 @@
       <c r="O6" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AF6" s="6">
+        <v>43742</v>
+      </c>
+      <c r="AG6" s="6">
+        <v>43747</v>
+      </c>
+      <c r="AH6" s="6">
+        <v>43743</v>
+      </c>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="22">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="22">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>43745</v>
       </c>
@@ -20745,8 +22326,27 @@
       <c r="Q7" s="13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AF7" s="6">
+        <v>43745</v>
+      </c>
+      <c r="AG7" s="6">
+        <v>43747</v>
+      </c>
+      <c r="AH7" s="6">
+        <v>43744</v>
+      </c>
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="22">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="22">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>43745</v>
       </c>
@@ -20778,8 +22378,29 @@
       <c r="R8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AF8" s="6">
+        <v>43745</v>
+      </c>
+      <c r="AG8" s="6">
+        <v>43748</v>
+      </c>
+      <c r="AH8" s="6">
+        <v>43745</v>
+      </c>
+      <c r="AI8" s="22">
+        <v>2</v>
+      </c>
+      <c r="AJ8" s="22">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="22">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>43746</v>
       </c>
@@ -20812,8 +22433,29 @@
       <c r="R9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AF9" s="6">
+        <v>43746</v>
+      </c>
+      <c r="AG9" s="6">
+        <v>43747</v>
+      </c>
+      <c r="AH9" s="6">
+        <v>43746</v>
+      </c>
+      <c r="AI9" s="22">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="22">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="22">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>43747</v>
       </c>
@@ -20843,8 +22485,31 @@
       <c r="R10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AF10" s="6">
+        <v>43747</v>
+      </c>
+      <c r="AG10" s="6">
+        <v>43749</v>
+      </c>
+      <c r="AH10" s="6">
+        <v>43747</v>
+      </c>
+      <c r="AI10" s="22">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="22">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AK10" s="10">
+        <v>3</v>
+      </c>
+      <c r="AL10" s="22">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>43748</v>
       </c>
@@ -20861,8 +22526,31 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AF11" s="6">
+        <v>43748</v>
+      </c>
+      <c r="AG11" s="6">
+        <v>43754</v>
+      </c>
+      <c r="AH11" s="6">
+        <v>43748</v>
+      </c>
+      <c r="AI11" s="22">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="22">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AK11" s="10">
+        <v>2</v>
+      </c>
+      <c r="AL11" s="22">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>43749</v>
       </c>
@@ -20876,8 +22564,31 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AF12" s="6">
+        <v>43749</v>
+      </c>
+      <c r="AG12" s="6">
+        <v>43753</v>
+      </c>
+      <c r="AH12" s="6">
+        <v>43749</v>
+      </c>
+      <c r="AI12" s="22">
+        <v>2</v>
+      </c>
+      <c r="AJ12" s="22">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="AK12" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="22">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>43749</v>
       </c>
@@ -20894,8 +22605,27 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AF13" s="6">
+        <v>43749</v>
+      </c>
+      <c r="AG13" s="6">
+        <v>43754</v>
+      </c>
+      <c r="AH13" s="6">
+        <v>43750</v>
+      </c>
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="22">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="22">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>43752</v>
       </c>
@@ -20912,8 +22642,27 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AF14" s="6">
+        <v>43752</v>
+      </c>
+      <c r="AG14" s="6">
+        <v>43753</v>
+      </c>
+      <c r="AH14" s="6">
+        <v>43751</v>
+      </c>
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="22">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="22">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>43752</v>
       </c>
@@ -20936,8 +22685,29 @@
       <c r="O15" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AF15" s="6">
+        <v>43752</v>
+      </c>
+      <c r="AG15" s="6">
+        <v>43754</v>
+      </c>
+      <c r="AH15" s="6">
+        <v>43752</v>
+      </c>
+      <c r="AI15" s="22">
+        <v>3</v>
+      </c>
+      <c r="AJ15" s="22">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="22">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>43752</v>
       </c>
@@ -20957,8 +22727,31 @@
       <c r="O16" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="AF16" s="6">
+        <v>43752</v>
+      </c>
+      <c r="AG16" s="6">
+        <v>43755</v>
+      </c>
+      <c r="AH16" s="6">
+        <v>43753</v>
+      </c>
+      <c r="AI16" s="22">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="22">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="AK16" s="10">
+        <v>2</v>
+      </c>
+      <c r="AL16" s="22">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>43753</v>
       </c>
@@ -20978,8 +22771,31 @@
       <c r="O17" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="AF17" s="6">
+        <v>43753</v>
+      </c>
+      <c r="AG17" s="6">
+        <v>43755</v>
+      </c>
+      <c r="AH17" s="6">
+        <v>43754</v>
+      </c>
+      <c r="AI17" s="22">
+        <v>2</v>
+      </c>
+      <c r="AJ17" s="22">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="AK17" s="10">
+        <v>3</v>
+      </c>
+      <c r="AL17" s="22">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>43754</v>
       </c>
@@ -21000,8 +22816,31 @@
         <v>34</v>
       </c>
       <c r="O18" s="10"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="AF18" s="6">
+        <v>43754</v>
+      </c>
+      <c r="AG18" s="6">
+        <v>43756</v>
+      </c>
+      <c r="AH18" s="6">
+        <v>43755</v>
+      </c>
+      <c r="AI18" s="22">
+        <v>2</v>
+      </c>
+      <c r="AJ18" s="22">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="AK18" s="10">
+        <v>2</v>
+      </c>
+      <c r="AL18" s="22">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>43754</v>
       </c>
@@ -21024,8 +22863,31 @@
       <c r="O19" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="AF19" s="6">
+        <v>43754</v>
+      </c>
+      <c r="AG19" s="6">
+        <v>43756</v>
+      </c>
+      <c r="AH19" s="6">
+        <v>43756</v>
+      </c>
+      <c r="AI19" s="22">
+        <v>2</v>
+      </c>
+      <c r="AJ19" s="22">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="AK19" s="10">
+        <v>3</v>
+      </c>
+      <c r="AL19" s="22">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>43755</v>
       </c>
@@ -21048,8 +22910,27 @@
       <c r="O20" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="AF20" s="6">
+        <v>43755</v>
+      </c>
+      <c r="AG20" s="6">
+        <v>43756</v>
+      </c>
+      <c r="AH20" s="6">
+        <v>43757</v>
+      </c>
+      <c r="AI20" s="22"/>
+      <c r="AJ20" s="22">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="22">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>43755</v>
       </c>
@@ -21072,8 +22953,27 @@
       <c r="O21" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="AF21" s="6">
+        <v>43755</v>
+      </c>
+      <c r="AG21" s="6">
+        <v>43763</v>
+      </c>
+      <c r="AH21" s="6">
+        <v>43758</v>
+      </c>
+      <c r="AI21" s="22"/>
+      <c r="AJ21" s="22">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="22">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>43756</v>
       </c>
@@ -21091,8 +22991,31 @@
         <v>35</v>
       </c>
       <c r="O22" s="10"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="AF22" s="6">
+        <v>43756</v>
+      </c>
+      <c r="AG22" s="6">
+        <v>43759</v>
+      </c>
+      <c r="AH22" s="6">
+        <v>43759</v>
+      </c>
+      <c r="AI22" s="22">
+        <v>1</v>
+      </c>
+      <c r="AJ22" s="22">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="AK22" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL22" s="22">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>43756</v>
       </c>
@@ -21115,8 +23038,31 @@
       <c r="O23" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="AF23" s="6">
+        <v>43756</v>
+      </c>
+      <c r="AG23" s="6">
+        <v>43760</v>
+      </c>
+      <c r="AH23" s="6">
+        <v>43760</v>
+      </c>
+      <c r="AI23" s="22">
+        <v>1</v>
+      </c>
+      <c r="AJ23" s="22">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AK23" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL23" s="22">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>43759</v>
       </c>
@@ -21139,8 +23085,29 @@
       <c r="O24" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="AF24" s="6">
+        <v>43759</v>
+      </c>
+      <c r="AG24" s="6">
+        <v>43762</v>
+      </c>
+      <c r="AH24" s="6">
+        <v>43761</v>
+      </c>
+      <c r="AI24" s="22">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="22">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="22">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>43760</v>
       </c>
@@ -21154,8 +23121,31 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="AF25" s="6">
+        <v>43760</v>
+      </c>
+      <c r="AG25" s="6">
+        <v>43762</v>
+      </c>
+      <c r="AH25" s="6">
+        <v>43762</v>
+      </c>
+      <c r="AI25" s="22">
+        <v>2</v>
+      </c>
+      <c r="AJ25" s="22">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="AK25" s="10">
+        <v>2</v>
+      </c>
+      <c r="AL25" s="22">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>43761</v>
       </c>
@@ -21172,8 +23162,31 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="AF26" s="6">
+        <v>43761</v>
+      </c>
+      <c r="AG26" s="6">
+        <v>43763</v>
+      </c>
+      <c r="AH26" s="6">
+        <v>43763</v>
+      </c>
+      <c r="AI26" s="22">
+        <v>2</v>
+      </c>
+      <c r="AJ26" s="22">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="AK26" s="10">
+        <v>2</v>
+      </c>
+      <c r="AL26" s="22">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>43762</v>
       </c>
@@ -21190,8 +23203,27 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="AF27" s="6">
+        <v>43762</v>
+      </c>
+      <c r="AG27" s="6">
+        <v>43766</v>
+      </c>
+      <c r="AH27" s="6">
+        <v>43764</v>
+      </c>
+      <c r="AI27" s="22"/>
+      <c r="AJ27" s="22">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="AK27" s="10"/>
+      <c r="AL27" s="22">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>43762</v>
       </c>
@@ -21208,8 +23240,27 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="AF28" s="6">
+        <v>43762</v>
+      </c>
+      <c r="AG28" s="6">
+        <v>43768</v>
+      </c>
+      <c r="AH28" s="6">
+        <v>43765</v>
+      </c>
+      <c r="AI28" s="22"/>
+      <c r="AJ28" s="22">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="22">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>43763</v>
       </c>
@@ -21229,8 +23280,31 @@
       <c r="Q29" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="AF29" s="6">
+        <v>43763</v>
+      </c>
+      <c r="AG29" s="6">
+        <v>43766</v>
+      </c>
+      <c r="AH29" s="6">
+        <v>43766</v>
+      </c>
+      <c r="AI29" s="22">
+        <v>1</v>
+      </c>
+      <c r="AJ29" s="22">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="AK29" s="10">
+        <v>2</v>
+      </c>
+      <c r="AL29" s="22">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>43763</v>
       </c>
@@ -21259,8 +23333,31 @@
       <c r="T30">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="AF30" s="6">
+        <v>43763</v>
+      </c>
+      <c r="AG30" s="6">
+        <v>43767</v>
+      </c>
+      <c r="AH30" s="6">
+        <v>43767</v>
+      </c>
+      <c r="AI30" s="22">
+        <v>2</v>
+      </c>
+      <c r="AJ30" s="22">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="AK30" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL30" s="22">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>43766</v>
       </c>
@@ -21289,8 +23386,31 @@
       <c r="T31">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="AF31" s="6">
+        <v>43766</v>
+      </c>
+      <c r="AG31" s="6">
+        <v>43770</v>
+      </c>
+      <c r="AH31" s="6">
+        <v>43768</v>
+      </c>
+      <c r="AI31" s="22">
+        <v>2</v>
+      </c>
+      <c r="AJ31" s="22">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="AK31" s="10">
+        <v>2</v>
+      </c>
+      <c r="AL31" s="22">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>43767</v>
       </c>
@@ -21316,8 +23436,29 @@
       <c r="T32">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="AF32" s="6">
+        <v>43767</v>
+      </c>
+      <c r="AG32" s="6">
+        <v>43768</v>
+      </c>
+      <c r="AH32" s="6">
+        <v>43769</v>
+      </c>
+      <c r="AI32" s="22">
+        <v>1</v>
+      </c>
+      <c r="AJ32" s="22">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="AK32" s="10"/>
+      <c r="AL32" s="22">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>43767</v>
       </c>
@@ -21346,8 +23487,29 @@
       <c r="T33">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="AF33" s="6">
+        <v>43767</v>
+      </c>
+      <c r="AG33" s="6">
+        <v>43775</v>
+      </c>
+      <c r="AH33" s="6">
+        <v>43770</v>
+      </c>
+      <c r="AI33" s="22"/>
+      <c r="AJ33" s="22">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="AK33" s="10">
+        <v>2</v>
+      </c>
+      <c r="AL33" s="22">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>43768</v>
       </c>
@@ -21373,8 +23535,27 @@
       <c r="T34">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="AF34" s="6">
+        <v>43768</v>
+      </c>
+      <c r="AG34" s="6">
+        <v>43773</v>
+      </c>
+      <c r="AH34" s="6">
+        <v>43771</v>
+      </c>
+      <c r="AI34" s="22"/>
+      <c r="AJ34" s="22">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="AK34" s="10"/>
+      <c r="AL34" s="22">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>43768</v>
       </c>
@@ -21403,8 +23584,27 @@
       <c r="T35">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="AF35" s="6">
+        <v>43768</v>
+      </c>
+      <c r="AG35" s="6">
+        <v>43770</v>
+      </c>
+      <c r="AH35" s="6">
+        <v>43772</v>
+      </c>
+      <c r="AI35" s="22"/>
+      <c r="AJ35" s="22">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="AK35" s="10"/>
+      <c r="AL35" s="22">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>43769</v>
       </c>
@@ -21433,8 +23633,29 @@
       <c r="T36">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="AF36" s="6">
+        <v>43769</v>
+      </c>
+      <c r="AG36" s="6">
+        <v>43774</v>
+      </c>
+      <c r="AH36" s="6">
+        <v>43773</v>
+      </c>
+      <c r="AI36" s="22"/>
+      <c r="AJ36" s="22">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="AK36" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL36" s="22">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
       <c r="Q37">
         <v>39</v>
       </c>
@@ -21447,8 +23668,23 @@
       <c r="T37">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="AH37" s="6">
+        <v>43774</v>
+      </c>
+      <c r="AI37" s="22"/>
+      <c r="AJ37" s="22">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="AK37" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL37" s="22">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -21473,8 +23709,23 @@
       <c r="T38">
         <v>30.2</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="AH38" s="6">
+        <v>43775</v>
+      </c>
+      <c r="AI38" s="22"/>
+      <c r="AJ38" s="22">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="AK38" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL38" s="22">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>1</v>
       </c>
@@ -21499,8 +23750,9 @@
       <c r="T39">
         <v>41.6</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="AH39" s="6"/>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>2</v>
       </c>
@@ -21525,8 +23777,9 @@
       <c r="T40">
         <v>53.4</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="AH40" s="6"/>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>3</v>
       </c>
@@ -21551,8 +23804,9 @@
       <c r="T41">
         <v>65.400000000000006</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="AH41" s="6"/>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>4</v>
       </c>
@@ -21577,8 +23831,9 @@
       <c r="T42">
         <v>75.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="AH42" s="6"/>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>5</v>
       </c>
@@ -21603,8 +23858,9 @@
       <c r="T43">
         <v>83.6</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="AH43" s="6"/>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>6</v>
       </c>
@@ -21629,8 +23885,9 @@
       <c r="T44">
         <v>89.6</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="AH44" s="6"/>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>8</v>
       </c>
@@ -21655,8 +23912,9 @@
       <c r="T45">
         <v>94.2</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="AH45" s="6"/>
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
       <c r="Q46">
         <v>52</v>
@@ -21670,8 +23928,9 @@
       <c r="T46">
         <v>96.9</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="AH46" s="6"/>
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
       <c r="Q47">
         <v>53</v>
@@ -21685,8 +23944,9 @@
       <c r="T47">
         <v>98.3</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="AH47" s="6"/>
+    </row>
+    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="Q48">
         <v>55</v>

--- a/doc/examples.xlsx
+++ b/doc/examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ralfw/Projects/06 entwicklungen/NMCForecasting.github/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2ABB6A-98EC-5E41-86ED-BCE88921EF52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B2E57D-A381-2E47-B6F2-CDACA3CEE033}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17040" activeTab="2" xr2:uid="{E6411D16-3D34-DF47-BAC5-62BB5C1AB095}"/>
   </bookViews>
@@ -21977,8 +21977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68998185-6223-B043-AFF2-49C8E87E0E3F}">
   <dimension ref="A1:AL222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="47" zoomScaleNormal="47" workbookViewId="0">
-      <selection activeCell="AA156" sqref="AA156"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="47" zoomScaleNormal="47" workbookViewId="0">
+      <selection activeCell="Z133" sqref="Z133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/doc/examples.xlsx
+++ b/doc/examples.xlsx
@@ -8,33 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ralfw/Projects/06 entwicklungen/NMCForecasting.github/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C44B7C5-023C-A54E-BE97-92A7A388DE04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C54B34-8451-DF46-9581-590BD0E16462}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17040" activeTab="3" xr2:uid="{E6411D16-3D34-DF47-BAC5-62BB5C1AB095}"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17040" activeTab="4" xr2:uid="{E6411D16-3D34-DF47-BAC5-62BB5C1AB095}"/>
   </bookViews>
   <sheets>
     <sheet name="rolling a dice" sheetId="1" r:id="rId1"/>
     <sheet name="train connection" sheetId="2" r:id="rId2"/>
     <sheet name="software delivery" sheetId="3" r:id="rId3"/>
     <sheet name="rolling software delivery" sheetId="5" r:id="rId4"/>
-    <sheet name="meeting on time" sheetId="4" r:id="rId5"/>
+    <sheet name="Delivery timeline" sheetId="6" r:id="rId5"/>
+    <sheet name="meeting on time" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'software delivery'!$A$1:$E$36</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">'software delivery'!$I$168:$I$194</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'software delivery'!$E$2:$E$36</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'rolling software delivery'!$C$134:$C$141</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'rolling software delivery'!$AD$70:$AD$76</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'rolling software delivery'!$AE$70:$AE$76</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'rolling software delivery'!$AG$70:$AG$76</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'rolling software delivery'!$E$2:$E$14</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'rolling software delivery'!$F$2:$F$14</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'rolling software delivery'!$G$2:$G$14</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'rolling software delivery'!$A$91:$A$99</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'rolling software delivery'!$B$91:$B$99</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'rolling software delivery'!$C$91:$C$99</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'rolling software delivery'!$A$134:$A$141</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'rolling software delivery'!$B$134:$B$141</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="69">
   <si>
     <t>Frequency</t>
   </si>
@@ -257,6 +246,9 @@
   <si>
     <t>TP 21.11.19</t>
   </si>
+  <si>
+    <t>WIP</t>
+  </si>
 </sst>
 </file>
 
@@ -303,7 +295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,6 +323,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,7 +409,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -409,6 +455,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -4064,7 +4122,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Cumulativ Flow Diagram</a:t>
+              <a:t>Cumulative Flow Diagram</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5335,6 +5393,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1632134448"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -5828,6 +5887,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1630195200"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -6307,6 +6367,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1526681280"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -6809,6 +6870,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1645466464"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -7720,6 +7782,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1633762384"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -8213,6 +8276,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1629259888"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -8688,6 +8752,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1633815424"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -9212,6 +9277,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1649026864"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -9717,6 +9783,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1634064080"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -10178,6 +10245,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1632214352"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -10644,6 +10712,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1630502624"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -11831,6 +11900,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1645716480"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -12289,6 +12359,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1630783600"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -35909,7 +35980,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5911850" y="2032000"/>
+              <a:off x="6559550" y="2032000"/>
               <a:ext cx="5137150" cy="3416300"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -36203,7 +36274,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9355667" y="35225566"/>
+              <a:off x="10003367" y="35225566"/>
               <a:ext cx="4821767" cy="2822222"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -38973,8 +39044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68998185-6223-B043-AFF2-49C8E87E0E3F}">
   <dimension ref="A1:AL248"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" zoomScale="75" zoomScaleNormal="47" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AL38"/>
+    <sheetView topLeftCell="A210" zoomScale="75" zoomScaleNormal="47" workbookViewId="0">
+      <selection activeCell="AY15" sqref="AY15:CI15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -38992,6 +39063,7 @@
     <col min="35" max="36" width="8.1640625" customWidth="1"/>
     <col min="37" max="37" width="7.6640625" customWidth="1"/>
     <col min="38" max="38" width="5.83203125" customWidth="1"/>
+    <col min="51" max="87" width="4.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.2">
@@ -44212,7 +44284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DFACE7-3CD1-8A4A-A1E6-AEA9094F2204}">
   <dimension ref="A1:AH148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA66" zoomScale="90" workbookViewId="0">
+    <sheetView topLeftCell="AA66" zoomScale="90" workbookViewId="0">
       <selection activeCell="AU79" sqref="AU79"/>
     </sheetView>
   </sheetViews>
@@ -46685,6 +46757,426 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75088A8-D546-8B45-8C47-BBA4171C77D2}">
+  <dimension ref="A2:AL12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AN14" sqref="AN14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="38" width="3.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="34"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="32"/>
+      <c r="AG6" s="32"/>
+      <c r="AH6" s="32"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="31"/>
+      <c r="AB7" s="31"/>
+      <c r="AC7" s="31"/>
+      <c r="AE7" s="31"/>
+      <c r="AF7" s="31"/>
+      <c r="AG7" s="31"/>
+      <c r="AH7" s="31"/>
+      <c r="AI7" s="31"/>
+      <c r="AJ7" s="31"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AD8" s="30"/>
+      <c r="AE8" s="30"/>
+      <c r="AF8" s="30"/>
+      <c r="AG8" s="30"/>
+      <c r="AH8" s="30"/>
+      <c r="AI8" s="30"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="30"/>
+      <c r="AL8" s="30"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="29"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="28"/>
+      <c r="AG10" s="28"/>
+    </row>
+    <row r="11" spans="1:38" ht="49" x14ac:dyDescent="0.2">
+      <c r="B11" s="27">
+        <v>43739</v>
+      </c>
+      <c r="C11" s="27">
+        <v>43740</v>
+      </c>
+      <c r="D11" s="27">
+        <v>43741</v>
+      </c>
+      <c r="E11" s="27">
+        <v>43742</v>
+      </c>
+      <c r="F11" s="27">
+        <v>43743</v>
+      </c>
+      <c r="G11" s="27">
+        <v>43744</v>
+      </c>
+      <c r="H11" s="27">
+        <v>43745</v>
+      </c>
+      <c r="I11" s="27">
+        <v>43746</v>
+      </c>
+      <c r="J11" s="27">
+        <v>43747</v>
+      </c>
+      <c r="K11" s="27">
+        <v>43748</v>
+      </c>
+      <c r="L11" s="27">
+        <v>43749</v>
+      </c>
+      <c r="M11" s="27">
+        <v>43750</v>
+      </c>
+      <c r="N11" s="27">
+        <v>43751</v>
+      </c>
+      <c r="O11" s="27">
+        <v>43752</v>
+      </c>
+      <c r="P11" s="27">
+        <v>43753</v>
+      </c>
+      <c r="Q11" s="27">
+        <v>43754</v>
+      </c>
+      <c r="R11" s="27">
+        <v>43755</v>
+      </c>
+      <c r="S11" s="27">
+        <v>43756</v>
+      </c>
+      <c r="T11" s="27">
+        <v>43757</v>
+      </c>
+      <c r="U11" s="27">
+        <v>43758</v>
+      </c>
+      <c r="V11" s="27">
+        <v>43759</v>
+      </c>
+      <c r="W11" s="27">
+        <v>43760</v>
+      </c>
+      <c r="X11" s="27">
+        <v>43761</v>
+      </c>
+      <c r="Y11" s="27">
+        <v>43762</v>
+      </c>
+      <c r="Z11" s="27">
+        <v>43763</v>
+      </c>
+      <c r="AA11" s="27">
+        <v>43764</v>
+      </c>
+      <c r="AB11" s="27">
+        <v>43765</v>
+      </c>
+      <c r="AC11" s="27">
+        <v>43766</v>
+      </c>
+      <c r="AD11" s="27">
+        <v>43767</v>
+      </c>
+      <c r="AE11" s="27">
+        <v>43768</v>
+      </c>
+      <c r="AF11" s="27">
+        <v>43769</v>
+      </c>
+      <c r="AG11" s="27">
+        <v>43770</v>
+      </c>
+      <c r="AH11" s="27">
+        <v>43771</v>
+      </c>
+      <c r="AI11" s="27">
+        <v>43772</v>
+      </c>
+      <c r="AJ11" s="27">
+        <v>43773</v>
+      </c>
+      <c r="AK11" s="27">
+        <v>43774</v>
+      </c>
+      <c r="AL11" s="27">
+        <v>43775</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="10">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10">
+        <v>4</v>
+      </c>
+      <c r="D12" s="10">
+        <v>3</v>
+      </c>
+      <c r="E12" s="10">
+        <v>4</v>
+      </c>
+      <c r="F12" s="10">
+        <v>2</v>
+      </c>
+      <c r="G12" s="10">
+        <v>2</v>
+      </c>
+      <c r="H12" s="10">
+        <v>4</v>
+      </c>
+      <c r="I12" s="10">
+        <v>5</v>
+      </c>
+      <c r="J12" s="10">
+        <v>6</v>
+      </c>
+      <c r="K12" s="10">
+        <v>4</v>
+      </c>
+      <c r="L12" s="10">
+        <v>4</v>
+      </c>
+      <c r="M12" s="10">
+        <v>3</v>
+      </c>
+      <c r="N12" s="10">
+        <v>3</v>
+      </c>
+      <c r="O12" s="10">
+        <v>6</v>
+      </c>
+      <c r="P12" s="10">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>7</v>
+      </c>
+      <c r="R12" s="10">
+        <v>6</v>
+      </c>
+      <c r="S12" s="10">
+        <v>4</v>
+      </c>
+      <c r="T12" s="10">
+        <v>3</v>
+      </c>
+      <c r="U12" s="10">
+        <v>3</v>
+      </c>
+      <c r="V12" s="10">
+        <v>4</v>
+      </c>
+      <c r="W12" s="10">
+        <v>4</v>
+      </c>
+      <c r="X12" s="10">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="10">
+        <v>6</v>
+      </c>
+      <c r="Z12" s="10">
+        <v>6</v>
+      </c>
+      <c r="AA12" s="10">
+        <v>4</v>
+      </c>
+      <c r="AB12" s="10">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="10">
+        <v>5</v>
+      </c>
+      <c r="AD12" s="10">
+        <v>5</v>
+      </c>
+      <c r="AE12" s="10">
+        <v>6</v>
+      </c>
+      <c r="AF12" s="10">
+        <v>5</v>
+      </c>
+      <c r="AG12" s="10">
+        <v>5</v>
+      </c>
+      <c r="AH12" s="10">
+        <v>4</v>
+      </c>
+      <c r="AI12" s="10">
+        <v>3</v>
+      </c>
+      <c r="AJ12" s="10">
+        <v>3</v>
+      </c>
+      <c r="AK12" s="10">
+        <v>2</v>
+      </c>
+      <c r="AL12" s="10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955297D0-8E12-8E42-8ADC-B70B93491060}">
   <dimension ref="A1:L14"/>
   <sheetViews>

--- a/doc/examples.xlsx
+++ b/doc/examples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ralfw/Projects/06 entwicklungen/NMCForecasting.github/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C54B34-8451-DF46-9581-590BD0E16462}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4EE6B0-C24D-4741-90B9-D19327AC57D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17040" activeTab="4" xr2:uid="{E6411D16-3D34-DF47-BAC5-62BB5C1AB095}"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17040" activeTab="6" xr2:uid="{E6411D16-3D34-DF47-BAC5-62BB5C1AB095}"/>
   </bookViews>
   <sheets>
     <sheet name="rolling a dice" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,18 @@
     <sheet name="rolling software delivery" sheetId="5" r:id="rId4"/>
     <sheet name="Delivery timeline" sheetId="6" r:id="rId5"/>
     <sheet name="meeting on time" sheetId="4" r:id="rId6"/>
+    <sheet name="Tabelle1" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'software delivery'!$A$1:$E$36</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'software delivery'!$I$168:$I$194</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'software delivery'!$E$2:$E$36</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'software delivery'!$E$2:$E$36</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'software delivery'!$I$168:$I$194</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Tabelle1!$A$32:$A$43</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Tabelle1!$B$32:$B$43</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Tabelle1!$D$32:$D$43</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Tabelle1!$A$32:$A$43</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Tabelle1!$B$32:$B$43</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Tabelle1!$D$32:$D$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +40,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="74">
   <si>
     <t>Frequency</t>
   </si>
@@ -248,6 +257,21 @@
   </si>
   <si>
     <t>WIP</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>median</t>
   </si>
 </sst>
 </file>
@@ -14123,6 +14147,1279 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$32:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$32:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-62F9-5248-97CB-0EF3EED35BB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="705277360"/>
+        <c:axId val="705166864"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$D$32:$D$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>33.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>86.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-62F9-5248-97CB-0EF3EED35BB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="705541008"/>
+        <c:axId val="705073712"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="705277360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="705166864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="705166864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="705277360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="705073712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="705541008"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="705541008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="705073712"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$61:$B$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1897</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2867</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3113</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3031</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2525</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2340</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2172</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2258</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2319</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2395</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1497</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1231</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2521</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2408</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2084</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1759</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1299</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1123</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>849</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>779</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>806</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E529-3F41-8D73-3C5BDB305BDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="747818368"/>
+        <c:axId val="747820048"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="747818368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747820048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="747820048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747818368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$N$61:$N$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A2B6-1D4B-85F7-0F84921ABDB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="710281024"/>
+        <c:axId val="708565616"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="710281024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="708565616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="708565616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="710281024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -17148,7 +18445,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -17211,7 +18508,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -18389,6 +19686,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors35.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors36.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors37.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -32252,6 +33669,1515 @@
 </file>
 
 <file path=xl/charts/style34.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style35.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style36.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style37.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -37110,6 +40036,119 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AECF0664-9328-EE43-9FC2-8597A411CBA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>499532</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>59266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>575733</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{688A849C-DF08-9143-B71E-498429EB661E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>313267</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>76198</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>338666</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27C2A704-7D12-734F-BA71-4F591552E645}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -46760,7 +49799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75088A8-D546-8B45-8C47-BBA4171C77D2}">
   <dimension ref="A2:AL12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AN14" sqref="AN14"/>
     </sheetView>
   </sheetViews>
@@ -47458,4 +50497,1890 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD7F459D-0DCA-F849-99BA-5587AF365E69}">
+  <dimension ref="A1:P136"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="75" workbookViewId="0">
+      <selection activeCell="I98" sqref="I98"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>AVERAGE(A1:A30)</f>
+        <v>4.4333333333333336</v>
+      </c>
+      <c r="C2">
+        <f>MEDIAN(A1:A30)</f>
+        <v>2.5</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <f>AVERAGE(E1:E30)</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G2">
+        <f>MEDIAN(E1:E30)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>11</v>
+      </c>
+      <c r="E27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>12</v>
+      </c>
+      <c r="E28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>13</v>
+      </c>
+      <c r="E29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>15</v>
+      </c>
+      <c r="E30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D32">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="D33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>0.1</v>
+      </c>
+      <c r="D34">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D35">
+        <v>66.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D36">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D37">
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D38">
+        <v>76.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D39">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D40">
+        <v>83.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D41">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>11</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D42">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>15</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>0.1</v>
+      </c>
+      <c r="D43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61">
+        <v>1897</v>
+      </c>
+      <c r="C61">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D61">
+        <v>3.8</v>
+      </c>
+      <c r="M61">
+        <v>5</v>
+      </c>
+      <c r="N61">
+        <v>38</v>
+      </c>
+      <c r="O61">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="P61">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>4</v>
+      </c>
+      <c r="B62">
+        <v>2867</v>
+      </c>
+      <c r="C62">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="D62">
+        <v>9.5</v>
+      </c>
+      <c r="M62">
+        <v>6</v>
+      </c>
+      <c r="N62">
+        <v>123</v>
+      </c>
+      <c r="O62">
+        <v>1.2E-2</v>
+      </c>
+      <c r="P62">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>5</v>
+      </c>
+      <c r="B63">
+        <v>3113</v>
+      </c>
+      <c r="C63">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D63">
+        <v>15.8</v>
+      </c>
+      <c r="M63">
+        <v>7</v>
+      </c>
+      <c r="N63">
+        <v>193</v>
+      </c>
+      <c r="O63">
+        <v>1.9E-2</v>
+      </c>
+      <c r="P63">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>6</v>
+      </c>
+      <c r="B64">
+        <v>3031</v>
+      </c>
+      <c r="C64">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="D64">
+        <v>21.8</v>
+      </c>
+      <c r="M64">
+        <v>8</v>
+      </c>
+      <c r="N64">
+        <v>235</v>
+      </c>
+      <c r="O64">
+        <v>2.4E-2</v>
+      </c>
+      <c r="P64">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>7</v>
+      </c>
+      <c r="B65">
+        <v>2525</v>
+      </c>
+      <c r="C65">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="D65">
+        <v>26.9</v>
+      </c>
+      <c r="M65">
+        <v>9</v>
+      </c>
+      <c r="N65">
+        <v>226</v>
+      </c>
+      <c r="O65">
+        <v>2.3E-2</v>
+      </c>
+      <c r="P65">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>8</v>
+      </c>
+      <c r="B66">
+        <v>2340</v>
+      </c>
+      <c r="C66">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D66">
+        <v>31.5</v>
+      </c>
+      <c r="M66">
+        <v>10</v>
+      </c>
+      <c r="N66">
+        <v>259</v>
+      </c>
+      <c r="O66">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="P66">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>9</v>
+      </c>
+      <c r="B67">
+        <v>2150</v>
+      </c>
+      <c r="C67">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D67">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="M67">
+        <v>11</v>
+      </c>
+      <c r="N67">
+        <v>282</v>
+      </c>
+      <c r="O67">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="P67">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>10</v>
+      </c>
+      <c r="B68">
+        <v>2172</v>
+      </c>
+      <c r="C68">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D68">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="M68">
+        <v>12</v>
+      </c>
+      <c r="N68">
+        <v>267</v>
+      </c>
+      <c r="O68">
+        <v>2.7E-2</v>
+      </c>
+      <c r="P68">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>11</v>
+      </c>
+      <c r="B69">
+        <v>2258</v>
+      </c>
+      <c r="C69">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D69">
+        <v>44.7</v>
+      </c>
+      <c r="M69">
+        <v>13</v>
+      </c>
+      <c r="N69">
+        <v>313</v>
+      </c>
+      <c r="O69">
+        <v>3.1E-2</v>
+      </c>
+      <c r="P69">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>12</v>
+      </c>
+      <c r="B70">
+        <v>2319</v>
+      </c>
+      <c r="C70">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D70">
+        <v>49.3</v>
+      </c>
+      <c r="M70">
+        <v>14</v>
+      </c>
+      <c r="N70">
+        <v>315</v>
+      </c>
+      <c r="O70">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="P70">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>13</v>
+      </c>
+      <c r="B71">
+        <v>2395</v>
+      </c>
+      <c r="C71">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D71">
+        <v>54.1</v>
+      </c>
+      <c r="M71">
+        <v>15</v>
+      </c>
+      <c r="N71">
+        <v>361</v>
+      </c>
+      <c r="O71">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="P71">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>14</v>
+      </c>
+      <c r="B72">
+        <v>2009</v>
+      </c>
+      <c r="C72">
+        <v>0.04</v>
+      </c>
+      <c r="D72">
+        <v>58.2</v>
+      </c>
+      <c r="M72">
+        <v>16</v>
+      </c>
+      <c r="N72">
+        <v>373</v>
+      </c>
+      <c r="O72">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="P72">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>15</v>
+      </c>
+      <c r="B73">
+        <v>1497</v>
+      </c>
+      <c r="C73">
+        <v>0.03</v>
+      </c>
+      <c r="D73">
+        <v>61.1</v>
+      </c>
+      <c r="M73">
+        <v>17</v>
+      </c>
+      <c r="N73">
+        <v>360</v>
+      </c>
+      <c r="O73">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="P73">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>16</v>
+      </c>
+      <c r="B74">
+        <v>1231</v>
+      </c>
+      <c r="C74">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D74">
+        <v>63.6</v>
+      </c>
+      <c r="M74">
+        <v>18</v>
+      </c>
+      <c r="N74">
+        <v>338</v>
+      </c>
+      <c r="O74">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="P74">
+        <v>36.799999999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>17</v>
+      </c>
+      <c r="B75">
+        <v>2521</v>
+      </c>
+      <c r="C75">
+        <v>0.05</v>
+      </c>
+      <c r="D75">
+        <v>68.7</v>
+      </c>
+      <c r="M75">
+        <v>19</v>
+      </c>
+      <c r="N75">
+        <v>359</v>
+      </c>
+      <c r="O75">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="P75">
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>18</v>
+      </c>
+      <c r="B76">
+        <v>2408</v>
+      </c>
+      <c r="C76">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D76">
+        <v>73.5</v>
+      </c>
+      <c r="M76">
+        <v>20</v>
+      </c>
+      <c r="N76">
+        <v>418</v>
+      </c>
+      <c r="O76">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="P76">
+        <v>44.6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>19</v>
+      </c>
+      <c r="B77">
+        <v>2084</v>
+      </c>
+      <c r="C77">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D77">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="M77">
+        <v>21</v>
+      </c>
+      <c r="N77">
+        <v>395</v>
+      </c>
+      <c r="O77">
+        <v>0.04</v>
+      </c>
+      <c r="P77">
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>20</v>
+      </c>
+      <c r="B78">
+        <v>1759</v>
+      </c>
+      <c r="C78">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D78">
+        <v>81.2</v>
+      </c>
+      <c r="M78">
+        <v>22</v>
+      </c>
+      <c r="N78">
+        <v>399</v>
+      </c>
+      <c r="O78">
+        <v>0.04</v>
+      </c>
+      <c r="P78">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>21</v>
+      </c>
+      <c r="B79">
+        <v>1299</v>
+      </c>
+      <c r="C79">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D79">
+        <v>83.8</v>
+      </c>
+      <c r="M79">
+        <v>23</v>
+      </c>
+      <c r="N79">
+        <v>399</v>
+      </c>
+      <c r="O79">
+        <v>0.04</v>
+      </c>
+      <c r="P79">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>22</v>
+      </c>
+      <c r="B80">
+        <v>1123</v>
+      </c>
+      <c r="C80">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D80">
+        <v>86</v>
+      </c>
+      <c r="M80">
+        <v>24</v>
+      </c>
+      <c r="N80">
+        <v>375</v>
+      </c>
+      <c r="O80">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="P80">
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>23</v>
+      </c>
+      <c r="B81">
+        <v>925</v>
+      </c>
+      <c r="C81">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D81">
+        <v>87.8</v>
+      </c>
+      <c r="M81">
+        <v>25</v>
+      </c>
+      <c r="N81">
+        <v>343</v>
+      </c>
+      <c r="O81">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="P81">
+        <v>63.7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>24</v>
+      </c>
+      <c r="B82">
+        <v>849</v>
+      </c>
+      <c r="C82">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D82">
+        <v>89.5</v>
+      </c>
+      <c r="M82">
+        <v>26</v>
+      </c>
+      <c r="N82">
+        <v>311</v>
+      </c>
+      <c r="O82">
+        <v>3.1E-2</v>
+      </c>
+      <c r="P82">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>25</v>
+      </c>
+      <c r="B83">
+        <v>776</v>
+      </c>
+      <c r="C83">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D83">
+        <v>91.1</v>
+      </c>
+      <c r="M83">
+        <v>27</v>
+      </c>
+      <c r="N83">
+        <v>288</v>
+      </c>
+      <c r="O83">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="P83">
+        <v>69.7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>26</v>
+      </c>
+      <c r="B84">
+        <v>779</v>
+      </c>
+      <c r="C84">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D84">
+        <v>92.7</v>
+      </c>
+      <c r="M84">
+        <v>28</v>
+      </c>
+      <c r="N84">
+        <v>287</v>
+      </c>
+      <c r="O84">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="P84">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>27</v>
+      </c>
+      <c r="B85">
+        <v>806</v>
+      </c>
+      <c r="C85">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D85">
+        <v>94.3</v>
+      </c>
+      <c r="M85">
+        <v>29</v>
+      </c>
+      <c r="N85">
+        <v>292</v>
+      </c>
+      <c r="O85">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="P85">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>28</v>
+      </c>
+      <c r="B86">
+        <v>412</v>
+      </c>
+      <c r="C86">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D86">
+        <v>95.1</v>
+      </c>
+      <c r="M86">
+        <v>30</v>
+      </c>
+      <c r="N86">
+        <v>256</v>
+      </c>
+      <c r="O86">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="P86">
+        <v>78.099999999999994</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>29</v>
+      </c>
+      <c r="B87">
+        <v>274</v>
+      </c>
+      <c r="C87">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D87">
+        <v>95.6</v>
+      </c>
+      <c r="M87">
+        <v>31</v>
+      </c>
+      <c r="N87">
+        <v>241</v>
+      </c>
+      <c r="O87">
+        <v>2.4E-2</v>
+      </c>
+      <c r="P87">
+        <v>80.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>30</v>
+      </c>
+      <c r="B88">
+        <v>201</v>
+      </c>
+      <c r="C88">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D88">
+        <v>96</v>
+      </c>
+      <c r="M88">
+        <v>32</v>
+      </c>
+      <c r="N88">
+        <v>215</v>
+      </c>
+      <c r="O88">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="P88">
+        <v>82.6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>31</v>
+      </c>
+      <c r="B89">
+        <v>672</v>
+      </c>
+      <c r="C89">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D89">
+        <v>97.4</v>
+      </c>
+      <c r="M89">
+        <v>33</v>
+      </c>
+      <c r="N89">
+        <v>221</v>
+      </c>
+      <c r="O89">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="P89">
+        <v>84.8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>32</v>
+      </c>
+      <c r="B90">
+        <v>362</v>
+      </c>
+      <c r="C90">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D90">
+        <v>98.1</v>
+      </c>
+      <c r="M90">
+        <v>34</v>
+      </c>
+      <c r="N90">
+        <v>185</v>
+      </c>
+      <c r="O90">
+        <v>1.9E-2</v>
+      </c>
+      <c r="P90">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>33</v>
+      </c>
+      <c r="B91">
+        <v>243</v>
+      </c>
+      <c r="C91">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D91">
+        <v>98.6</v>
+      </c>
+      <c r="M91">
+        <v>35</v>
+      </c>
+      <c r="N91">
+        <v>183</v>
+      </c>
+      <c r="O91">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="P91">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>34</v>
+      </c>
+      <c r="B92">
+        <v>194</v>
+      </c>
+      <c r="C92">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D92">
+        <v>99</v>
+      </c>
+      <c r="M92">
+        <v>36</v>
+      </c>
+      <c r="N92">
+        <v>159</v>
+      </c>
+      <c r="O92">
+        <v>1.6E-2</v>
+      </c>
+      <c r="P92">
+        <v>90.1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>35</v>
+      </c>
+      <c r="B93">
+        <v>105</v>
+      </c>
+      <c r="C93">
+        <v>2E-3</v>
+      </c>
+      <c r="D93">
+        <v>99.2</v>
+      </c>
+      <c r="M93">
+        <v>37</v>
+      </c>
+      <c r="N93">
+        <v>150</v>
+      </c>
+      <c r="O93">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="P93">
+        <v>91.6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>36</v>
+      </c>
+      <c r="B94">
+        <v>77</v>
+      </c>
+      <c r="C94">
+        <v>2E-3</v>
+      </c>
+      <c r="D94">
+        <v>99.3</v>
+      </c>
+      <c r="M94">
+        <v>38</v>
+      </c>
+      <c r="N94">
+        <v>94</v>
+      </c>
+      <c r="O94">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="P94">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>37</v>
+      </c>
+      <c r="B95">
+        <v>65</v>
+      </c>
+      <c r="C95">
+        <v>1E-3</v>
+      </c>
+      <c r="D95">
+        <v>99.5</v>
+      </c>
+      <c r="M95">
+        <v>39</v>
+      </c>
+      <c r="N95">
+        <v>110</v>
+      </c>
+      <c r="O95">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="P95">
+        <v>93.6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>38</v>
+      </c>
+      <c r="B96">
+        <v>56</v>
+      </c>
+      <c r="C96">
+        <v>1E-3</v>
+      </c>
+      <c r="D96">
+        <v>99.6</v>
+      </c>
+      <c r="M96">
+        <v>40</v>
+      </c>
+      <c r="N96">
+        <v>102</v>
+      </c>
+      <c r="O96">
+        <v>0.01</v>
+      </c>
+      <c r="P96">
+        <v>94.7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>39</v>
+      </c>
+      <c r="B97">
+        <v>50</v>
+      </c>
+      <c r="C97">
+        <v>1E-3</v>
+      </c>
+      <c r="D97">
+        <v>99.7</v>
+      </c>
+      <c r="M97">
+        <v>41</v>
+      </c>
+      <c r="N97">
+        <v>77</v>
+      </c>
+      <c r="O97">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="P97">
+        <v>95.4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>40</v>
+      </c>
+      <c r="B98">
+        <v>54</v>
+      </c>
+      <c r="C98">
+        <v>1E-3</v>
+      </c>
+      <c r="D98">
+        <v>99.8</v>
+      </c>
+      <c r="M98">
+        <v>42</v>
+      </c>
+      <c r="N98">
+        <v>65</v>
+      </c>
+      <c r="O98">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="P98">
+        <v>96.1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>41</v>
+      </c>
+      <c r="B99">
+        <v>50</v>
+      </c>
+      <c r="C99">
+        <v>1E-3</v>
+      </c>
+      <c r="D99">
+        <v>99.9</v>
+      </c>
+      <c r="M99">
+        <v>43</v>
+      </c>
+      <c r="N99">
+        <v>81</v>
+      </c>
+      <c r="O99">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="P99">
+        <v>96.9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>45</v>
+      </c>
+      <c r="B100">
+        <v>52</v>
+      </c>
+      <c r="C100">
+        <v>1E-3</v>
+      </c>
+      <c r="D100">
+        <v>100</v>
+      </c>
+      <c r="M100">
+        <v>44</v>
+      </c>
+      <c r="N100">
+        <v>57</v>
+      </c>
+      <c r="O100">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="P100">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M101">
+        <v>45</v>
+      </c>
+      <c r="N101">
+        <v>38</v>
+      </c>
+      <c r="O101">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="P101">
+        <v>97.8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M102">
+        <v>46</v>
+      </c>
+      <c r="N102">
+        <v>41</v>
+      </c>
+      <c r="O102">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="P102">
+        <v>98.2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M103">
+        <v>47</v>
+      </c>
+      <c r="N103">
+        <v>28</v>
+      </c>
+      <c r="O103">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="P103">
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M104">
+        <v>48</v>
+      </c>
+      <c r="N104">
+        <v>36</v>
+      </c>
+      <c r="O104">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="P104">
+        <v>98.9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M105">
+        <v>49</v>
+      </c>
+      <c r="N105">
+        <v>19</v>
+      </c>
+      <c r="O105">
+        <v>2E-3</v>
+      </c>
+      <c r="P105">
+        <v>99.1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M106">
+        <v>50</v>
+      </c>
+      <c r="N106">
+        <v>17</v>
+      </c>
+      <c r="O106">
+        <v>2E-3</v>
+      </c>
+      <c r="P106">
+        <v>99.2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M107">
+        <v>51</v>
+      </c>
+      <c r="N107">
+        <v>15</v>
+      </c>
+      <c r="O107">
+        <v>2E-3</v>
+      </c>
+      <c r="P107">
+        <v>99.4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M108">
+        <v>52</v>
+      </c>
+      <c r="N108">
+        <v>12</v>
+      </c>
+      <c r="O108">
+        <v>1E-3</v>
+      </c>
+      <c r="P108">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M109">
+        <v>53</v>
+      </c>
+      <c r="N109">
+        <v>16</v>
+      </c>
+      <c r="O109">
+        <v>2E-3</v>
+      </c>
+      <c r="P109">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M110">
+        <v>54</v>
+      </c>
+      <c r="N110">
+        <v>5</v>
+      </c>
+      <c r="O110">
+        <v>1E-3</v>
+      </c>
+      <c r="P110">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M111">
+        <v>55</v>
+      </c>
+      <c r="N111">
+        <v>5</v>
+      </c>
+      <c r="O111">
+        <v>1E-3</v>
+      </c>
+      <c r="P111">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M112">
+        <v>56</v>
+      </c>
+      <c r="N112">
+        <v>5</v>
+      </c>
+      <c r="O112">
+        <v>1E-3</v>
+      </c>
+      <c r="P112">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M113">
+        <v>57</v>
+      </c>
+      <c r="N113">
+        <v>3</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M114">
+        <v>58</v>
+      </c>
+      <c r="N114">
+        <v>3</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M115">
+        <v>59</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M116">
+        <v>60</v>
+      </c>
+      <c r="N116">
+        <v>3</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M117">
+        <v>62</v>
+      </c>
+      <c r="N117">
+        <v>4</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M118">
+        <v>63</v>
+      </c>
+      <c r="N118">
+        <v>2</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M119">
+        <v>64</v>
+      </c>
+      <c r="N119">
+        <v>1</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+      <c r="P119">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M120">
+        <v>65</v>
+      </c>
+      <c r="N120">
+        <v>1</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>2</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+      <c r="E125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>2</v>
+      </c>
+      <c r="D126">
+        <v>3</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>2</v>
+      </c>
+      <c r="D127">
+        <v>5</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>2</v>
+      </c>
+      <c r="D128">
+        <v>7</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>3</v>
+      </c>
+      <c r="D129">
+        <v>9</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>71</v>
+      </c>
+      <c r="B134">
+        <f>_xlfn.MODE.SNGL(A124:A133)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>72</v>
+      </c>
+      <c r="B135">
+        <f>AVERAGE(A124:A133)</f>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>73</v>
+      </c>
+      <c r="B136">
+        <f>MEDIAN(A124:A133)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>